--- a/Results/Categorization/lda-partial-ner.xlsx
+++ b/Results/Categorization/lda-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1832">
   <si>
     <t>id</t>
   </si>
@@ -4024,826 +4024,1147 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE|PRICES</t>
+    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>place|like|staff|rude</t>
-  </si>
-  <si>
-    <t>food|good|always|time</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good|wine</t>
-  </si>
-  <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>great|food</t>
-  </si>
-  <si>
-    <t>rude</t>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>place|like</t>
+  </si>
+  <si>
+    <t>food|salty</t>
+  </si>
+  <si>
+    <t>good|food|outrageously|many</t>
+  </si>
+  <si>
+    <t>duck|confit|foie|terrine|figs|world</t>
+  </si>
+  <si>
+    <t>wine|good|list|value|many|interesting</t>
+  </si>
+  <si>
+    <t>replied|walked|away|lotus|wrapped|back|attendant|asked|leaf|tend</t>
+  </si>
+  <si>
+    <t>food|great|thing</t>
+  </si>
+  <si>
+    <t>table|share</t>
   </si>
   <si>
     <t>service|price</t>
   </si>
   <si>
-    <t>service|always</t>
-  </si>
-  <si>
-    <t>duck|breast|visit</t>
-  </si>
-  <si>
-    <t>thing|chicken|edamame|puree</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>sake|list|haze|request</t>
-  </si>
-  <si>
-    <t>great|tuna|good</t>
-  </si>
-  <si>
-    <t>great|service</t>
+    <t>service|cool|everything|excellent|cooked|perfection|thing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>food|thing</t>
+  </si>
+  <si>
+    <t>special|thing</t>
+  </si>
+  <si>
+    <t>edamame|pureed|salt</t>
+  </si>
+  <si>
+    <t>made|list|list</t>
+  </si>
+  <si>
+    <t>good|great|spicy|rock|unusually|tuna|awesome|roll|shrimp|tempura|share</t>
+  </si>
+  <si>
+    <t>service|great</t>
+  </si>
+  <si>
+    <t>food|awesome</t>
   </si>
   <si>
     <t>service|friendly</t>
   </si>
   <si>
+    <t>long|like</t>
+  </si>
+  <si>
+    <t>food|great</t>
+  </si>
+  <si>
+    <t>restaurant|sushi|sushi|urchin|judge|heavenly|tend|rose</t>
+  </si>
+  <si>
+    <t>fresh|sushi</t>
+  </si>
+  <si>
+    <t>good|also</t>
+  </si>
+  <si>
+    <t>sushi|took|price|deal</t>
+  </si>
+  <si>
+    <t>service|food</t>
+  </si>
+  <si>
+    <t>menu|enough</t>
+  </si>
+  <si>
+    <t>food|fresh</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good|food|like|rather</t>
+  </si>
+  <si>
+    <t>like|somosas|chai|dissapointing|dhosas</t>
+  </si>
+  <si>
+    <t>food|like|specify|bland|spicy|also|rather</t>
+  </si>
+  <si>
+    <t>probably|would</t>
+  </si>
+  <si>
+    <t>long|river</t>
+  </si>
+  <si>
+    <t>service|even|food|great|great|great|price|reasonable</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>cosette|path|bistro</t>
+  </si>
+  <si>
+    <t>restaurant|certain</t>
+  </si>
+  <si>
+    <t>even|live</t>
+  </si>
+  <si>
+    <t>overpriced|price</t>
+  </si>
+  <si>
+    <t>good|even</t>
+  </si>
+  <si>
+    <t>meals|life|minnow</t>
+  </si>
+  <si>
+    <t>wine|good|food|menu|great|list</t>
+  </si>
+  <si>
+    <t>fresh|delicious</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>sign|even|food|special|menu|waitstaff</t>
+  </si>
+  <si>
+    <t>good|special|live|atmosphere</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>wine|price|reasonable</t>
+  </si>
+  <si>
+    <t>service|food|great|delicious|excellent</t>
+  </si>
+  <si>
+    <t>hostess|point</t>
+  </si>
+  <si>
+    <t>food|bland</t>
+  </si>
+  <si>
+    <t>wine|service|place|food|great|many</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>wine|great</t>
+  </si>
+  <si>
+    <t>people|friendly</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>good|review</t>
+  </si>
+  <si>
+    <t>food|sauce</t>
+  </si>
+  <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
+    <t>service|great|friendly</t>
+  </si>
+  <si>
+    <t>place|food</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>food|great|sushi|excellent</t>
+  </si>
+  <si>
+    <t>menu|great</t>
+  </si>
+  <si>
+    <t>great|atmosphere|price</t>
+  </si>
+  <si>
+    <t>good|fresh|roll</t>
+  </si>
+  <si>
+    <t>garden|terrace</t>
+  </si>
+  <si>
+    <t>great|table</t>
+  </si>
+  <si>
+    <t>restaurant|charm|rather|open</t>
+  </si>
+  <si>
+    <t>wine|great|great|price|value</t>
+  </si>
+  <si>
+    <t>good|food</t>
+  </si>
+  <si>
+    <t>like|fresh</t>
+  </si>
+  <si>
+    <t>food|great|great|review</t>
+  </si>
+  <si>
+    <t>service|special|recommend</t>
+  </si>
+  <si>
+    <t>spicy|roll</t>
+  </si>
+  <si>
+    <t>excellent|salty</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>made|wine|fairly|price|drink</t>
+  </si>
+  <si>
+    <t>service|deal</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>restaurant|romantic</t>
+  </si>
+  <si>
+    <t>food|beautiful|beautifully|presented|delicious</t>
+  </si>
+  <si>
+    <t>wine|price|interesting</t>
+  </si>
+  <si>
+    <t>dinner|table|waitress|want|practically|told|asked|sitting|order</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|away</t>
+  </si>
+  <si>
+    <t>special|especially</t>
+  </si>
+  <si>
+    <t>tuna|excellent</t>
+  </si>
+  <si>
+    <t>even|away|wonderful|atmosphere|outdoor|sidewalk|watching|sitting|cool</t>
+  </si>
+  <si>
+    <t>service|food|great|great</t>
+  </si>
+  <si>
+    <t>menu|would</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>restaurant|food</t>
+  </si>
+  <si>
+    <t>dining|restaurant</t>
+  </si>
+  <si>
+    <t>service|table</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>live|free|would|would</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>special|roll|rose</t>
+  </si>
+  <si>
+    <t>service|good</t>
+  </si>
+  <si>
+    <t>good|food|long|wish|order</t>
+  </si>
+  <si>
+    <t>wine|wine|good|list</t>
+  </si>
+  <si>
+    <t>restaurant|rather</t>
+  </si>
+  <si>
+    <t>restaurant|even</t>
+  </si>
+  <si>
+    <t>good|food|table|fresh|order</t>
+  </si>
+  <si>
+    <t>dining|great</t>
+  </si>
+  <si>
+    <t>live|atmosphere|order|completely</t>
+  </si>
+  <si>
+    <t>simply</t>
+  </si>
+  <si>
+    <t>upscale|restaurant</t>
+  </si>
+  <si>
+    <t>made|food|food|delicious</t>
+  </si>
+  <si>
+    <t>food|cool|drink</t>
+  </si>
+  <si>
+    <t>made|place|good</t>
+  </si>
+  <si>
+    <t>made|food|delicious|recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh|roll|recommend</t>
+  </si>
+  <si>
+    <t>guests|pizza|santa|fish|chips</t>
+  </si>
+  <si>
+    <t>service|food|wonderful|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|thing</t>
+  </si>
+  <si>
+    <t>tuna|roll|sushi</t>
+  </si>
+  <si>
+    <t>delicious|everything|thing</t>
+  </si>
+  <si>
+    <t>service|price|although|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|food|fresh|fresh|delicious</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy</t>
+  </si>
+  <si>
+    <t>great|people</t>
+  </si>
+  <si>
+    <t>like|atmosphere</t>
+  </si>
+  <si>
+    <t>good|vacation|although|business</t>
+  </si>
+  <si>
+    <t>great|although</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|tuna|roll|price|probably</t>
+  </si>
+  <si>
+    <t>food|menu|reservation|fairly|deal|probably|order</t>
+  </si>
+  <si>
+    <t>service|food|great|price</t>
+  </si>
+  <si>
+    <t>atmosphere|thing</t>
+  </si>
+  <si>
+    <t>price|reasonable</t>
+  </si>
+  <si>
+    <t>caesar|wife|arugula|goat|cheese</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>place|food|delicious</t>
+  </si>
+  <si>
+    <t>even|want|manager</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>wine|place|atmosphere</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>service|people|friendly</t>
+  </si>
+  <si>
+    <t>food|delicious</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like|like|tuna</t>
+  </si>
+  <si>
+    <t>service|great|also</t>
+  </si>
+  <si>
+    <t>service|restaurant|food|excellent|review</t>
+  </si>
+  <si>
+    <t>mignon|dish</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>menu|order|thing</t>
+  </si>
+  <si>
+    <t>dining|made|wine|service|place|back|excellent</t>
+  </si>
+  <si>
+    <t>place|romantic|review</t>
+  </si>
+  <si>
+    <t>wine|restaurant|menu|typical|table|overpriced|simply|list|close|crammed|price</t>
+  </si>
+  <si>
+    <t>wine|list</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>service|charm</t>
+  </si>
+  <si>
+    <t>food|completely</t>
+  </si>
+  <si>
+    <t>made|bland|rose</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>also|recommend</t>
+  </si>
+  <si>
+    <t>service|fresh|delicious</t>
+  </si>
+  <si>
+    <t>service|place|cool</t>
+  </si>
+  <si>
+    <t>dining|fresh|music</t>
+  </si>
+  <si>
+    <t>service|menu|tend</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>service|place|special|great|romantic|excellent</t>
+  </si>
+  <si>
+    <t>good|food|food|food|food|food|menu|great|like|price|price</t>
+  </si>
+  <si>
+    <t>place|place|romantic</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|food|although|order</t>
+  </si>
+  <si>
+    <t>price|drink</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>food|service</t>
-  </si>
-  <si>
-    <t>prix|fixe|menu|penny|quantity|quality</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>food|like|good</t>
-  </si>
-  <si>
-    <t>nice|service|time|time</t>
-  </si>
-  <si>
-    <t>food|like</t>
-  </si>
-  <si>
-    <t>would|nice</t>
-  </si>
-  <si>
-    <t>river|idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|food|service|price</t>
-  </si>
-  <si>
-    <t>lava|cake|dessert</t>
-  </si>
-  <si>
-    <t>cosette|path|bistro</t>
-  </si>
-  <si>
-    <t>pizza|price</t>
-  </si>
-  <si>
-    <t>good|pizza</t>
-  </si>
-  <si>
-    <t>meals|life|minnow</t>
-  </si>
-  <si>
-    <t>great|food|good|always|wine</t>
-  </si>
-  <si>
-    <t>combination|ingredients|dishes</t>
-  </si>
-  <si>
-    <t>wife|shrimp</t>
-  </si>
-  <si>
-    <t>food|staff</t>
-  </si>
-  <si>
-    <t>atmosphere|good</t>
-  </si>
-  <si>
-    <t>friendly|always|always|staff|never</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|food|service</t>
-  </si>
-  <si>
-    <t>great|food|place|service|always|wine|time</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>great|always|wine</t>
-  </si>
-  <si>
-    <t>friendly|always|time</t>
-  </si>
-  <si>
-    <t>like|pizza</t>
-  </si>
-  <si>
-    <t>toppings</t>
-  </si>
-  <si>
-    <t>great|service|friendly</t>
-  </si>
-  <si>
-    <t>great|service|pizza</t>
-  </si>
-  <si>
-    <t>sushi|hands</t>
-  </si>
-  <si>
-    <t>food|place</t>
-  </si>
-  <si>
-    <t>tuna</t>
-  </si>
-  <si>
-    <t>great|food|always</t>
-  </si>
-  <si>
-    <t>great|never</t>
-  </si>
-  <si>
-    <t>great|atmosphere|price</t>
-  </si>
-  <si>
-    <t>menu|choices|dumplings|appetizer|section</t>
-  </si>
-  <si>
-    <t>garden|terrace</t>
-  </si>
-  <si>
-    <t>great|great|price|wine</t>
-  </si>
-  <si>
-    <t>food|good</t>
-  </si>
-  <si>
-    <t>like|pizza|pizza</t>
-  </si>
-  <si>
-    <t>great|great|food</t>
-  </si>
-  <si>
-    <t>nice|service</t>
-  </si>
-  <si>
-    <t>scallop|roll</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>always|price|wine</t>
-  </si>
-  <si>
-    <t>chef|specials</t>
-  </si>
-  <si>
-    <t>good|always</t>
-  </si>
-  <si>
-    <t>waitress|table|bathroom|dinner|orders|toilet</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|rude</t>
-  </si>
-  <si>
-    <t>everythig|shows|actors</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>great|great|food|service</t>
-  </si>
-  <si>
-    <t>pizza|pizza|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>would|would</t>
-  </si>
-  <si>
-    <t>sake|menu</t>
-  </si>
-  <si>
-    <t>teriyaki|roll</t>
-  </si>
-  <si>
-    <t>service|good</t>
-  </si>
-  <si>
-    <t>good|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|always</t>
-  </si>
-  <si>
-    <t>atmosphere|time</t>
-  </si>
-  <si>
-    <t>food|food</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>workers|bagel|cream|cheese</t>
-  </si>
-  <si>
-    <t>food|service|time</t>
-  </si>
-  <si>
-    <t>roll|mayo</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
-  </si>
-  <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
-  </si>
-  <si>
-    <t>restaurant|service|good</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
-  </si>
-  <si>
-    <t>hats|chef</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>tuna|price</t>
-  </si>
-  <si>
-    <t>great|food|service|price</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>food|place|staff</t>
-  </si>
-  <si>
-    <t>visit|manager</t>
-  </si>
-  <si>
-    <t>food|service|good|time</t>
-  </si>
-  <si>
-    <t>food|service|service|good|good|time|time</t>
-  </si>
-  <si>
-    <t>place|atmosphere|wine</t>
-  </si>
-  <si>
-    <t>place|nice|good|pizza</t>
-  </si>
-  <si>
-    <t>goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>tuna|like|like</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|time</t>
-  </si>
-  <si>
-    <t>mignon|dish</t>
-  </si>
-  <si>
-    <t>beef|noodle|soup|dishes|section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine</t>
-  </si>
-  <si>
-    <t>restaurant|price|wine</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>would|service|price</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>would|place|nice|staff|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>great|place|service</t>
-  </si>
-  <si>
-    <t>great|food|food|food|food|food|like|good|price|price</t>
-  </si>
-  <si>
-    <t>place|place</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>ambiance|boot</t>
   </si>
   <si>
-    <t>great|nice|service</t>
-  </si>
-  <si>
-    <t>food|service|price|cheap</t>
-  </si>
-  <si>
-    <t>food|price|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>dessert|waitress|bill|chance|order</t>
-  </si>
-  <si>
-    <t>food|place|service|like|price|price</t>
-  </si>
-  <si>
-    <t>nice|staff</t>
-  </si>
-  <si>
-    <t>service|time|rude</t>
-  </si>
-  <si>
-    <t>restaurant|time|rude</t>
-  </si>
-  <si>
-    <t>price|cheap</t>
-  </si>
-  <si>
-    <t>great|food|cheap</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>restaurant|price</t>
-  </si>
-  <si>
-    <t>food|good|price</t>
-  </si>
-  <si>
-    <t>good|price</t>
-  </si>
-  <si>
-    <t>dessert|candle|anyone|waiter|birthday|card|gift|occassion|sort</t>
+    <t>special|like|atmosphere|sushi|thing</t>
+  </si>
+  <si>
+    <t>owner|staff|ambiance</t>
+  </si>
+  <si>
+    <t>service|food|price</t>
+  </si>
+  <si>
+    <t>service|asked|people</t>
+  </si>
+  <si>
+    <t>restaurant|romantic|list</t>
+  </si>
+  <si>
+    <t>wine|food|price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>service|food|value</t>
+  </si>
+  <si>
+    <t>service|friendly|excellent</t>
+  </si>
+  <si>
+    <t>waitress|everything|thing</t>
+  </si>
+  <si>
+    <t>waitress|order</t>
+  </si>
+  <si>
+    <t>service|place|food|like|price|price</t>
+  </si>
+  <si>
+    <t>like|also|thing</t>
+  </si>
+  <si>
+    <t>table|wooden|sitting</t>
+  </si>
+  <si>
+    <t>restaurant|close|rather|busy</t>
+  </si>
+  <si>
+    <t>great|feature|cigar</t>
+  </si>
+  <si>
+    <t>waitstaff|friendly</t>
+  </si>
+  <si>
+    <t>service|good|good|outing</t>
+  </si>
+  <si>
+    <t>restaurant|fallback|back|price</t>
+  </si>
+  <si>
+    <t>good|even|food|price</t>
+  </si>
+  <si>
+    <t>good|warrant|nearly|price|although|enough</t>
+  </si>
+  <si>
+    <t>special|anyone|came|asked|birthday|said|open</t>
   </si>
   <si>
     <t>mark|waiter</t>
   </si>
   <si>
-    <t>food|nice|cheap</t>
-  </si>
-  <si>
-    <t>great|would|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|food|place|good</t>
-  </si>
-  <si>
-    <t>like|staff</t>
-  </si>
-  <si>
-    <t>dinner|manager|boyfriend|things|tips|thing</t>
-  </si>
-  <si>
-    <t>model/waitress|manager</t>
-  </si>
-  <si>
-    <t>great|would|place|good|staff</t>
-  </si>
-  <si>
-    <t>great|food|price</t>
-  </si>
-  <si>
-    <t>restaurant|service</t>
-  </si>
-  <si>
-    <t>gentleman|manager|table|smile|order</t>
-  </si>
-  <si>
-    <t>staff|time</t>
-  </si>
-  <si>
-    <t>patio|music</t>
-  </si>
-  <si>
-    <t>garden|area|herb|garden</t>
-  </si>
-  <si>
-    <t>nice|always|never</t>
-  </si>
-  <si>
-    <t>waiter|money|guys|outta</t>
-  </si>
-  <si>
-    <t>food|cheap</t>
-  </si>
-  <si>
-    <t>great|place</t>
+    <t>wine|list|price</t>
+  </si>
+  <si>
+    <t>great|atmosphere|write|review|would</t>
+  </si>
+  <si>
+    <t>place|good|food|great|great|deal</t>
+  </si>
+  <si>
+    <t>like|people</t>
+  </si>
+  <si>
+    <t>service|people|everything|thing|thing</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>dinner|away|asked|manager|survive|thing|thing</t>
+  </si>
+  <si>
+    <t>waitress|want|manager</t>
+  </si>
+  <si>
+    <t>place|good|great|wish|unprofessional|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>food|great|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|back</t>
+  </si>
+  <si>
+    <t>table|came|asked|order|manager</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>table|outside</t>
+  </si>
+  <si>
+    <t>staff|bathroom</t>
+  </si>
+  <si>
+    <t>made|waitstaff|table</t>
+  </si>
+  <si>
+    <t>back|cool|music</t>
+  </si>
+  <si>
+    <t>service|good|also</t>
+  </si>
+  <si>
+    <t>back|sitting</t>
+  </si>
+  <si>
+    <t>place|special|especially|money|stand|wonderful|value</t>
+  </si>
+  <si>
+    <t>service|excellent</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>even|price</t>
+  </si>
+  <si>
+    <t>paid|money|said|immediately|outta|took</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>place|outside</t>
+  </si>
+  <si>
+    <t>restaurant|river|beautiful</t>
+  </si>
+  <si>
+    <t>place|great|watching</t>
+  </si>
+  <si>
+    <t>service|thing</t>
   </si>
   <si>
     <t>place|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|manager|business</t>
-  </si>
-  <si>
-    <t>great|like</t>
+    <t>told|asked|business|open|manager</t>
+  </si>
+  <si>
+    <t>place|even</t>
+  </si>
+  <si>
+    <t>great|like|want|music|minimun|dollar|system</t>
+  </si>
+  <si>
+    <t>staff|crew</t>
   </si>
   <si>
     <t>food|price</t>
   </si>
   <si>
-    <t>great|great</t>
-  </si>
-  <si>
-    <t>restaurant|staff</t>
-  </si>
-  <si>
-    <t>service|atmosphere|friendly</t>
-  </si>
-  <si>
-    <t>would|place|service</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>atmosphere|free</t>
+  </si>
+  <si>
+    <t>great|great|music|completely|shanty|recommend|drink|delish</t>
+  </si>
+  <si>
+    <t>good|outrageously|music</t>
+  </si>
+  <si>
+    <t>good|back|price|reasonable</t>
+  </si>
+  <si>
+    <t>great|feature|outside</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>stand|price</t>
+  </si>
+  <si>
+    <t>typical|long|like|table|atmosphere</t>
+  </si>
+  <si>
+    <t>service|friendly|atmosphere</t>
+  </si>
+  <si>
+    <t>service|place|stand|would</t>
   </si>
   <si>
     <t>management</t>
@@ -4852,157 +5173,235 @@
     <t>great|price</t>
   </si>
   <si>
-    <t>place|like|staff|time</t>
-  </si>
-  <si>
-    <t>place|good|cheap</t>
-  </si>
-  <si>
-    <t>great|place|place|service|never</t>
+    <t>place|like|excellent</t>
+  </si>
+  <si>
+    <t>service|food|great|great|great|price</t>
+  </si>
+  <si>
+    <t>service|place|place|dinner|great|live|romantic|table|want|also</t>
+  </si>
+  <si>
+    <t>service|back</t>
+  </si>
+  <si>
+    <t>place|beautiful</t>
   </si>
   <si>
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>atomosphere|tables</t>
-  </si>
-  <si>
-    <t>great|great|food|place|price</t>
-  </si>
-  <si>
-    <t>great|food|good|price|wine</t>
-  </si>
-  <si>
-    <t>food|would|price</t>
-  </si>
-  <si>
-    <t>money|decor</t>
-  </si>
-  <si>
-    <t>food|good|cheap</t>
-  </si>
-  <si>
-    <t>good|wine|cheap</t>
-  </si>
-  <si>
-    <t>jukebox|everything|opera|strokes</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
+    <t>restaurant|typical</t>
+  </si>
+  <si>
+    <t>romantic|table</t>
+  </si>
+  <si>
+    <t>place|food|great|great|want|price</t>
+  </si>
+  <si>
+    <t>dining|outside|sitting</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>place|food|money</t>
+  </si>
+  <si>
+    <t>friendly|outdoor</t>
+  </si>
+  <si>
+    <t>wine|good|food|great|price|selecion|reasonable</t>
+  </si>
+  <si>
+    <t>good|overpriced|price|everything|thing</t>
+  </si>
+  <si>
+    <t>food|price|would</t>
+  </si>
+  <si>
+    <t>place|great</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>sign|good|atmosphere</t>
+  </si>
+  <si>
+    <t>wine|good</t>
+  </si>
+  <si>
+    <t>everything|thing</t>
+  </si>
+  <si>
+    <t>drink</t>
   </si>
   <si>
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>location|delight|seating|yorkie</t>
+    <t>outdoor</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>food|great|price|reasonable</t>
+  </si>
+  <si>
+    <t>good|food|simply|price</t>
   </si>
   <si>
     <t>jazz|point</t>
   </si>
   <si>
-    <t>great|food|service|good|price</t>
-  </si>
-  <si>
-    <t>nice|atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant|food|friendly|like|good|price|price|staff|time|cheap</t>
-  </si>
-  <si>
-    <t>restaurant|food|service|good|price|staff</t>
-  </si>
-  <si>
-    <t>food|service|price</t>
-  </si>
-  <si>
-    <t>food|nice|price</t>
-  </si>
-  <si>
-    <t>place|nice|tuna</t>
-  </si>
-  <si>
-    <t>place|time</t>
-  </si>
-  <si>
-    <t>restaurant|nice</t>
-  </si>
-  <si>
-    <t>dinner|feet</t>
-  </si>
-  <si>
-    <t>plate|guacamole</t>
-  </si>
-  <si>
-    <t>food|place|good</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece</t>
-  </si>
-  <si>
-    <t>food|friendly|good|price</t>
+    <t>service|good|food|great|price|music</t>
+  </si>
+  <si>
+    <t>restaurant|good|food|like|friendly|price|price</t>
+  </si>
+  <si>
+    <t>service|restaurant|good|food|overpriced|price|many</t>
+  </si>
+  <si>
+    <t>food|price|reasonable</t>
+  </si>
+  <si>
+    <t>place|tuna</t>
+  </si>
+  <si>
+    <t>paid|good</t>
+  </si>
+  <si>
+    <t>place|away</t>
+  </si>
+  <si>
+    <t>place|dinner|great</t>
+  </si>
+  <si>
+    <t>nearly|back|atmosphere|thing</t>
+  </si>
+  <si>
+    <t>food|great|price|excellent</t>
+  </si>
+  <si>
+    <t>service|food|overpriced|price</t>
+  </si>
+  <si>
+    <t>dinner|romatic</t>
+  </si>
+  <si>
+    <t>place|good|food</t>
+  </si>
+  <si>
+    <t>place|beautiful|recommend</t>
+  </si>
+  <si>
+    <t>table|told</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>sign|restaurant|beautiful|beautifully</t>
+  </si>
+  <si>
+    <t>good|food|people|friendly|price</t>
   </si>
   <si>
     <t>bathroom|mens|bathroom</t>
   </si>
   <si>
-    <t>would|price</t>
-  </si>
-  <si>
-    <t>boths|reviews|people</t>
+    <t>price|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
+  </si>
+  <si>
+    <t>people|review</t>
   </si>
   <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
-    <t>great|great|place</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
-  </si>
-  <si>
-    <t>environment|name</t>
+    <t>place|great|great|value</t>
+  </si>
+  <si>
+    <t>fairly|price</t>
+  </si>
+  <si>
+    <t>back|awesome|birthday</t>
+  </si>
+  <si>
+    <t>wine|dinner</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>place|certain|want|beautiful</t>
+  </si>
+  <si>
+    <t>restaurant|review</t>
   </si>
   <si>
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>food|would|good|time</t>
-  </si>
-  <si>
-    <t>restaurant|never</t>
-  </si>
-  <si>
-    <t>restaurant|would|place|price</t>
+    <t>environment|trophy|upscale|paid</t>
+  </si>
+  <si>
+    <t>back|money|value</t>
+  </si>
+  <si>
+    <t>dinner|would</t>
+  </si>
+  <si>
+    <t>good|food|dinner|table|would</t>
+  </si>
+  <si>
+    <t>restaurant|money</t>
+  </si>
+  <si>
+    <t>good|food|fresh</t>
+  </si>
+  <si>
+    <t>upscale|upscale|place|restaurant|price|would</t>
+  </si>
+  <si>
+    <t>place|food|thing</t>
   </si>
   <si>
     <t>lunch|buffet</t>
   </si>
   <si>
-    <t>stone|bowl</t>
-  </si>
-  <si>
-    <t>party|fixe|prix|menu|deal|flight|sake</t>
-  </si>
-  <si>
-    <t>great|good|price|time</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>great|service|good</t>
-  </si>
-  <si>
-    <t>food|would|good|price</t>
-  </si>
-  <si>
-    <t>decor|distraction|bucks|eggplant|frickin</t>
+    <t>place|dinner|romantic|deal</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>menu|came|wonderful|also|deal</t>
+  </si>
+  <si>
+    <t>good|great|price|enough|reasonable|thing</t>
+  </si>
+  <si>
+    <t>service|even|drink</t>
+  </si>
+  <si>
+    <t>service|good|great|fresh|sauce|kimchi|free</t>
+  </si>
+  <si>
+    <t>good|food|back|price|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|took</t>
+  </si>
+  <si>
+    <t>menu|list|would|dollar|reasonable</t>
   </si>
   <si>
     <t>negative</t>
@@ -5517,10 +5916,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1435</v>
+        <v>1465</v>
       </c>
       <c r="H2" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5540,13 +5939,13 @@
         <v>1276</v>
       </c>
       <c r="F3" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>937</v>
+        <v>1466</v>
       </c>
       <c r="H3" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5566,13 +5965,13 @@
         <v>1277</v>
       </c>
       <c r="F4" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1436</v>
+        <v>1467</v>
       </c>
       <c r="H4" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5592,13 +5991,13 @@
         <v>1276</v>
       </c>
       <c r="F5" t="s">
-        <v>1277</v>
+        <v>1339</v>
       </c>
       <c r="G5" t="s">
-        <v>1437</v>
+        <v>1468</v>
       </c>
       <c r="H5" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5618,13 +6017,13 @@
         <v>1278</v>
       </c>
       <c r="F6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G6" t="s">
-        <v>1438</v>
+        <v>1469</v>
       </c>
       <c r="H6" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5644,13 +6043,13 @@
         <v>1275</v>
       </c>
       <c r="F7" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G7" t="s">
-        <v>1439</v>
+        <v>1470</v>
       </c>
       <c r="H7" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5670,13 +6069,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G8" t="s">
-        <v>1440</v>
+        <v>1471</v>
       </c>
       <c r="H8" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5696,13 +6095,13 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="G9" t="s">
-        <v>1441</v>
+        <v>1472</v>
       </c>
       <c r="H9" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5722,13 +6121,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G10" t="s">
-        <v>1442</v>
+        <v>1473</v>
       </c>
       <c r="H10" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5748,13 +6147,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="G11" t="s">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="H11" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5774,13 +6173,13 @@
         <v>1277</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1444</v>
+        <v>1475</v>
       </c>
       <c r="H12" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5800,13 +6199,13 @@
         <v>1281</v>
       </c>
       <c r="F13" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>937</v>
+        <v>1476</v>
       </c>
       <c r="H13" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5829,10 +6228,10 @@
         <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1445</v>
+        <v>1477</v>
       </c>
       <c r="H14" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5852,13 +6251,13 @@
         <v>1276</v>
       </c>
       <c r="F15" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G15" t="s">
-        <v>1446</v>
+        <v>1478</v>
       </c>
       <c r="H15" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5884,7 +6283,7 @@
         <v>1093</v>
       </c>
       <c r="H16" t="s">
-        <v>1670</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5904,13 +6303,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1447</v>
+        <v>1479</v>
       </c>
       <c r="H17" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5930,13 +6329,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1448</v>
+        <v>1480</v>
       </c>
       <c r="H18" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5956,13 +6355,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G19" t="s">
-        <v>1449</v>
+        <v>1481</v>
       </c>
       <c r="H19" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5982,13 +6381,13 @@
         <v>1277</v>
       </c>
       <c r="F20" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G20" t="s">
-        <v>937</v>
+        <v>1482</v>
       </c>
       <c r="H20" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6008,13 +6407,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G21" t="s">
-        <v>1450</v>
+        <v>1483</v>
       </c>
       <c r="H21" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6040,7 +6439,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6066,7 +6465,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6092,7 +6491,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6112,13 +6511,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="G25" t="s">
-        <v>1451</v>
+        <v>1484</v>
       </c>
       <c r="H25" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6138,13 +6537,13 @@
         <v>1277</v>
       </c>
       <c r="F26" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G26" t="s">
-        <v>1440</v>
+        <v>1485</v>
       </c>
       <c r="H26" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6170,7 +6569,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6190,13 +6589,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
       <c r="G28" t="s">
-        <v>972</v>
+        <v>1486</v>
       </c>
       <c r="H28" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6216,13 +6615,13 @@
         <v>1276</v>
       </c>
       <c r="F29" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G29" t="s">
-        <v>1000</v>
+        <v>1487</v>
       </c>
       <c r="H29" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6242,13 +6641,13 @@
         <v>1277</v>
       </c>
       <c r="F30" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G30" t="s">
-        <v>1452</v>
+        <v>1488</v>
       </c>
       <c r="H30" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6268,13 +6667,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1293</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1453</v>
+        <v>1489</v>
       </c>
       <c r="H31" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6294,13 +6693,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G32" t="s">
-        <v>1454</v>
+        <v>1490</v>
       </c>
       <c r="H32" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6320,13 +6719,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="G33" t="s">
-        <v>1455</v>
+        <v>1491</v>
       </c>
       <c r="H33" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6346,13 +6745,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G34" t="s">
-        <v>937</v>
+        <v>1492</v>
       </c>
       <c r="H34" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6375,10 +6774,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1456</v>
+        <v>1493</v>
       </c>
       <c r="H35" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6398,13 +6797,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="G36" t="s">
-        <v>1457</v>
+        <v>1494</v>
       </c>
       <c r="H36" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6424,13 +6823,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1277</v>
+        <v>1353</v>
       </c>
       <c r="G37" t="s">
-        <v>1451</v>
+        <v>1495</v>
       </c>
       <c r="H37" t="s">
-        <v>1672</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6450,13 +6849,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1349</v>
+        <v>1275</v>
       </c>
       <c r="G38" t="s">
-        <v>1458</v>
+        <v>952</v>
       </c>
       <c r="H38" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6476,13 +6875,13 @@
         <v>1275</v>
       </c>
       <c r="F39" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G39" t="s">
-        <v>1437</v>
+        <v>966</v>
       </c>
       <c r="H39" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6502,13 +6901,13 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="G40" t="s">
-        <v>1459</v>
+        <v>1496</v>
       </c>
       <c r="H40" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6528,13 +6927,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1460</v>
+        <v>1497</v>
       </c>
       <c r="H41" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6554,13 +6953,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1461</v>
+        <v>1498</v>
       </c>
       <c r="H42" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6580,13 +6979,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1462</v>
+        <v>1499</v>
       </c>
       <c r="H43" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6606,13 +7005,13 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G44" t="s">
-        <v>1463</v>
+        <v>1500</v>
       </c>
       <c r="H44" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6632,13 +7031,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="G45" t="s">
-        <v>1464</v>
+        <v>1501</v>
       </c>
       <c r="H45" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6658,13 +7057,13 @@
         <v>1284</v>
       </c>
       <c r="F46" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G46" t="s">
-        <v>972</v>
+        <v>1502</v>
       </c>
       <c r="H46" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6690,7 +7089,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1673</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6716,7 +7115,7 @@
         <v>937</v>
       </c>
       <c r="H48" t="s">
-        <v>1674</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6736,13 +7135,13 @@
         <v>1276</v>
       </c>
       <c r="F49" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>993</v>
+        <v>1503</v>
       </c>
       <c r="H49" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6762,13 +7161,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G50" t="s">
-        <v>1465</v>
+        <v>1504</v>
       </c>
       <c r="H50" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6788,13 +7187,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G51" t="s">
-        <v>1466</v>
+        <v>1505</v>
       </c>
       <c r="H51" t="s">
-        <v>1675</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6814,13 +7213,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G52" t="s">
-        <v>1467</v>
+        <v>1506</v>
       </c>
       <c r="H52" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6840,13 +7239,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1468</v>
+        <v>1507</v>
       </c>
       <c r="H53" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6866,13 +7265,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1469</v>
+        <v>1508</v>
       </c>
       <c r="H54" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6895,10 +7294,10 @@
         <v>1277</v>
       </c>
       <c r="G55" t="s">
-        <v>1456</v>
+        <v>1493</v>
       </c>
       <c r="H55" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6918,13 +7317,13 @@
         <v>1276</v>
       </c>
       <c r="F56" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G56" t="s">
-        <v>1470</v>
+        <v>1509</v>
       </c>
       <c r="H56" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6944,13 +7343,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1347</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1471</v>
+        <v>1510</v>
       </c>
       <c r="H57" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6970,13 +7369,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G58" t="s">
-        <v>1472</v>
+        <v>1511</v>
       </c>
       <c r="H58" t="s">
-        <v>1677</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6996,13 +7395,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1356</v>
+        <v>1275</v>
       </c>
       <c r="G59" t="s">
-        <v>1473</v>
+        <v>1512</v>
       </c>
       <c r="H59" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7022,13 +7421,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="G60" t="s">
-        <v>1474</v>
+        <v>1513</v>
       </c>
       <c r="H60" t="s">
-        <v>1678</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7048,13 +7447,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1342</v>
+        <v>1362</v>
       </c>
       <c r="G61" t="s">
-        <v>1475</v>
+        <v>1514</v>
       </c>
       <c r="H61" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7074,13 +7473,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1277</v>
+        <v>1363</v>
       </c>
       <c r="G62" t="s">
-        <v>1441</v>
+        <v>1515</v>
       </c>
       <c r="H62" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7100,13 +7499,13 @@
         <v>1277</v>
       </c>
       <c r="F63" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G63" t="s">
-        <v>937</v>
+        <v>1516</v>
       </c>
       <c r="H63" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7126,13 +7525,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="G64" t="s">
-        <v>1476</v>
+        <v>1517</v>
       </c>
       <c r="H64" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7155,10 +7554,10 @@
         <v>1277</v>
       </c>
       <c r="G65" t="s">
-        <v>1477</v>
+        <v>1518</v>
       </c>
       <c r="H65" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7178,13 +7577,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1478</v>
+        <v>1519</v>
       </c>
       <c r="H66" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7204,13 +7603,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G67" t="s">
-        <v>1449</v>
+        <v>1481</v>
       </c>
       <c r="H67" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7230,13 +7629,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="G68" t="s">
-        <v>1479</v>
+        <v>1520</v>
       </c>
       <c r="H68" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7256,13 +7655,13 @@
         <v>1292</v>
       </c>
       <c r="F69" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G69" t="s">
-        <v>1480</v>
+        <v>1521</v>
       </c>
       <c r="H69" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7288,7 +7687,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7311,10 +7710,10 @@
         <v>1277</v>
       </c>
       <c r="G71" t="s">
-        <v>1481</v>
+        <v>1522</v>
       </c>
       <c r="H71" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7334,13 +7733,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1277</v>
+        <v>1365</v>
       </c>
       <c r="G72" t="s">
-        <v>1452</v>
+        <v>1523</v>
       </c>
       <c r="H72" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7360,13 +7759,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G73" t="s">
-        <v>937</v>
+        <v>1524</v>
       </c>
       <c r="H73" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7386,13 +7785,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1277</v>
+        <v>1365</v>
       </c>
       <c r="G74" t="s">
-        <v>937</v>
+        <v>1525</v>
       </c>
       <c r="H74" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7412,13 +7811,13 @@
         <v>1275</v>
       </c>
       <c r="F75" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="G75" t="s">
-        <v>1482</v>
+        <v>1526</v>
       </c>
       <c r="H75" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7438,13 +7837,13 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1361</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H76" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7470,7 +7869,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7496,7 +7895,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7516,13 +7915,13 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G79" t="s">
-        <v>1484</v>
+        <v>1000</v>
       </c>
       <c r="H79" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7542,13 +7941,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
       <c r="G80" t="s">
-        <v>1485</v>
+        <v>1527</v>
       </c>
       <c r="H80" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7571,10 +7970,10 @@
         <v>1277</v>
       </c>
       <c r="G81" t="s">
-        <v>1486</v>
+        <v>1528</v>
       </c>
       <c r="H81" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7594,13 +7993,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G82" t="s">
-        <v>1487</v>
+        <v>1529</v>
       </c>
       <c r="H82" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7620,13 +8019,13 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G83" t="s">
-        <v>1488</v>
+        <v>1530</v>
       </c>
       <c r="H83" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7646,13 +8045,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G84" t="s">
-        <v>1489</v>
+        <v>1531</v>
       </c>
       <c r="H84" t="s">
-        <v>1678</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7678,7 +8077,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7698,13 +8097,13 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1363</v>
+        <v>1277</v>
       </c>
       <c r="G86" t="s">
-        <v>1490</v>
+        <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7724,13 +8123,13 @@
         <v>1281</v>
       </c>
       <c r="F87" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G87" t="s">
-        <v>1452</v>
+        <v>1532</v>
       </c>
       <c r="H87" t="s">
-        <v>1680</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7753,10 +8152,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1486</v>
+        <v>1528</v>
       </c>
       <c r="H88" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7776,13 +8175,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="G89" t="s">
-        <v>1491</v>
+        <v>1533</v>
       </c>
       <c r="H89" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7802,13 +8201,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G90" t="s">
-        <v>1454</v>
+        <v>1490</v>
       </c>
       <c r="H90" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7828,13 +8227,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G91" t="s">
-        <v>1456</v>
+        <v>1534</v>
       </c>
       <c r="H91" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7854,13 +8253,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1277</v>
+        <v>1369</v>
       </c>
       <c r="G92" t="s">
-        <v>972</v>
+        <v>1535</v>
       </c>
       <c r="H92" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7880,13 +8279,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="G93" t="s">
-        <v>1492</v>
+        <v>1536</v>
       </c>
       <c r="H93" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7906,13 +8305,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G94" t="s">
-        <v>1493</v>
+        <v>1537</v>
       </c>
       <c r="H94" t="s">
-        <v>1681</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7932,13 +8331,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G95" t="s">
-        <v>1494</v>
+        <v>1538</v>
       </c>
       <c r="H95" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7958,13 +8357,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="G96" t="s">
-        <v>1495</v>
+        <v>1539</v>
       </c>
       <c r="H96" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7984,13 +8383,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1347</v>
+        <v>1372</v>
       </c>
       <c r="G97" t="s">
-        <v>1496</v>
+        <v>1540</v>
       </c>
       <c r="H97" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8010,13 +8409,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="G98" t="s">
-        <v>1497</v>
+        <v>1541</v>
       </c>
       <c r="H98" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8036,13 +8435,13 @@
         <v>1276</v>
       </c>
       <c r="F99" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G99" t="s">
-        <v>1498</v>
+        <v>1542</v>
       </c>
       <c r="H99" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8062,13 +8461,13 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1441</v>
+        <v>1543</v>
       </c>
       <c r="H100" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8088,13 +8487,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1453</v>
+        <v>1504</v>
       </c>
       <c r="H101" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8114,13 +8513,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
       <c r="G102" t="s">
-        <v>1499</v>
+        <v>1544</v>
       </c>
       <c r="H102" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8140,13 +8539,13 @@
         <v>1277</v>
       </c>
       <c r="F103" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="H103" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8166,13 +8565,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1275</v>
+        <v>1344</v>
       </c>
       <c r="G104" t="s">
-        <v>952</v>
+        <v>1545</v>
       </c>
       <c r="H104" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8192,13 +8591,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1350</v>
+        <v>1277</v>
       </c>
       <c r="G105" t="s">
-        <v>1501</v>
+        <v>1546</v>
       </c>
       <c r="H105" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8218,13 +8617,13 @@
         <v>1284</v>
       </c>
       <c r="F106" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G106" t="s">
-        <v>972</v>
+        <v>1547</v>
       </c>
       <c r="H106" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8244,13 +8643,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1277</v>
+        <v>1374</v>
       </c>
       <c r="G107" t="s">
-        <v>937</v>
+        <v>1548</v>
       </c>
       <c r="H107" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8276,7 +8675,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8296,13 +8695,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="G109" t="s">
-        <v>1474</v>
+        <v>1549</v>
       </c>
       <c r="H109" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8322,13 +8721,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G110" t="s">
-        <v>1502</v>
+        <v>1550</v>
       </c>
       <c r="H110" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8348,13 +8747,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="G111" t="s">
-        <v>1503</v>
+        <v>1551</v>
       </c>
       <c r="H111" t="s">
-        <v>1682</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8374,13 +8773,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="G112" t="s">
-        <v>1504</v>
+        <v>1552</v>
       </c>
       <c r="H112" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8403,10 +8802,10 @@
         <v>1277</v>
       </c>
       <c r="G113" t="s">
-        <v>1505</v>
+        <v>1512</v>
       </c>
       <c r="H113" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8426,13 +8825,13 @@
         <v>1277</v>
       </c>
       <c r="F114" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G114" t="s">
-        <v>1493</v>
+        <v>1537</v>
       </c>
       <c r="H114" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8452,13 +8851,13 @@
         <v>1276</v>
       </c>
       <c r="F115" t="s">
-        <v>1277</v>
+        <v>1368</v>
       </c>
       <c r="G115" t="s">
-        <v>1486</v>
+        <v>1553</v>
       </c>
       <c r="H115" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8478,13 +8877,13 @@
         <v>1284</v>
       </c>
       <c r="F116" t="s">
-        <v>1284</v>
+        <v>1378</v>
       </c>
       <c r="G116" t="s">
-        <v>1069</v>
+        <v>1554</v>
       </c>
       <c r="H116" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8510,7 +8909,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8530,13 +8929,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="G118" t="s">
-        <v>1506</v>
+        <v>1555</v>
       </c>
       <c r="H118" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8556,13 +8955,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G119" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H119" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8582,13 +8981,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G120" t="s">
-        <v>1460</v>
+        <v>1556</v>
       </c>
       <c r="H120" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8608,13 +9007,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="G121" t="s">
-        <v>935</v>
+        <v>1557</v>
       </c>
       <c r="H121" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8634,13 +9033,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G122" t="s">
-        <v>1508</v>
+        <v>1558</v>
       </c>
       <c r="H122" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8660,13 +9059,13 @@
         <v>1277</v>
       </c>
       <c r="F123" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G123" t="s">
-        <v>972</v>
+        <v>1559</v>
       </c>
       <c r="H123" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8686,13 +9085,13 @@
         <v>1300</v>
       </c>
       <c r="F124" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="G124" t="s">
-        <v>952</v>
+        <v>1560</v>
       </c>
       <c r="H124" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8712,13 +9111,13 @@
         <v>1275</v>
       </c>
       <c r="F125" t="s">
-        <v>1275</v>
+        <v>1363</v>
       </c>
       <c r="G125" t="s">
-        <v>935</v>
+        <v>1561</v>
       </c>
       <c r="H125" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8744,7 +9143,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8764,13 +9163,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1338</v>
+        <v>1379</v>
       </c>
       <c r="G127" t="s">
-        <v>1509</v>
+        <v>1562</v>
       </c>
       <c r="H127" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8793,10 +9192,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1446</v>
+        <v>1563</v>
       </c>
       <c r="H128" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8816,13 +9215,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G129" t="s">
-        <v>1510</v>
+        <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8842,13 +9241,13 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G130" t="s">
-        <v>1511</v>
+        <v>1564</v>
       </c>
       <c r="H130" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8868,13 +9267,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G131" t="s">
-        <v>1512</v>
+        <v>1565</v>
       </c>
       <c r="H131" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8894,13 +9293,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="G132" t="s">
-        <v>1493</v>
+        <v>1566</v>
       </c>
       <c r="H132" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8920,13 +9319,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1344</v>
+        <v>1380</v>
       </c>
       <c r="G133" t="s">
-        <v>1513</v>
+        <v>1567</v>
       </c>
       <c r="H133" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8946,13 +9345,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G134" t="s">
-        <v>972</v>
+        <v>1568</v>
       </c>
       <c r="H134" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8972,13 +9371,13 @@
         <v>1275</v>
       </c>
       <c r="F135" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G135" t="s">
-        <v>1512</v>
+        <v>1565</v>
       </c>
       <c r="H135" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8998,13 +9397,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1338</v>
+        <v>1368</v>
       </c>
       <c r="G136" t="s">
-        <v>1514</v>
+        <v>1569</v>
       </c>
       <c r="H136" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9024,13 +9423,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="G137" t="s">
-        <v>1493</v>
+        <v>1570</v>
       </c>
       <c r="H137" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9050,13 +9449,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1284</v>
+        <v>1368</v>
       </c>
       <c r="G138" t="s">
-        <v>1456</v>
+        <v>1571</v>
       </c>
       <c r="H138" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9076,13 +9475,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G139" t="s">
-        <v>1515</v>
+        <v>1572</v>
       </c>
       <c r="H139" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9105,10 +9504,10 @@
         <v>1277</v>
       </c>
       <c r="G140" t="s">
-        <v>1050</v>
+        <v>1573</v>
       </c>
       <c r="H140" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9128,13 +9527,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G141" t="s">
-        <v>972</v>
+        <v>1574</v>
       </c>
       <c r="H141" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9157,10 +9556,10 @@
         <v>1338</v>
       </c>
       <c r="G142" t="s">
-        <v>1516</v>
+        <v>1575</v>
       </c>
       <c r="H142" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9180,13 +9579,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G143" t="s">
-        <v>937</v>
+        <v>1576</v>
       </c>
       <c r="H143" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9206,13 +9605,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="G144" t="s">
-        <v>1517</v>
+        <v>1577</v>
       </c>
       <c r="H144" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9232,13 +9631,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1277</v>
+        <v>1338</v>
       </c>
       <c r="G145" t="s">
-        <v>937</v>
+        <v>1578</v>
       </c>
       <c r="H145" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9264,7 +9663,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9284,13 +9683,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1372</v>
+        <v>1277</v>
       </c>
       <c r="G147" t="s">
-        <v>1518</v>
+        <v>1579</v>
       </c>
       <c r="H147" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9310,13 +9709,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1361</v>
+        <v>1343</v>
       </c>
       <c r="G148" t="s">
-        <v>1519</v>
+        <v>1490</v>
       </c>
       <c r="H148" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9336,13 +9735,13 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G149" t="s">
-        <v>1520</v>
+        <v>1580</v>
       </c>
       <c r="H149" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9362,13 +9761,13 @@
         <v>1281</v>
       </c>
       <c r="F150" t="s">
-        <v>1277</v>
+        <v>1382</v>
       </c>
       <c r="G150" t="s">
-        <v>993</v>
+        <v>1581</v>
       </c>
       <c r="H150" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9388,13 +9787,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1347</v>
+        <v>1379</v>
       </c>
       <c r="G151" t="s">
-        <v>1454</v>
+        <v>1582</v>
       </c>
       <c r="H151" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9420,7 +9819,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9440,13 +9839,13 @@
         <v>1277</v>
       </c>
       <c r="F153" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1521</v>
+        <v>1583</v>
       </c>
       <c r="H153" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9466,13 +9865,13 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1277</v>
       </c>
       <c r="G154" t="s">
-        <v>1522</v>
+        <v>1584</v>
       </c>
       <c r="H154" t="s">
-        <v>1683</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9492,13 +9891,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1373</v>
+        <v>1383</v>
       </c>
       <c r="G155" t="s">
-        <v>1523</v>
+        <v>1585</v>
       </c>
       <c r="H155" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9518,13 +9917,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G156" t="s">
-        <v>1486</v>
+        <v>1586</v>
       </c>
       <c r="H156" t="s">
-        <v>1684</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9544,13 +9943,13 @@
         <v>1276</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G157" t="s">
-        <v>1524</v>
+        <v>1587</v>
       </c>
       <c r="H157" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9570,13 +9969,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1340</v>
+        <v>1384</v>
       </c>
       <c r="G158" t="s">
-        <v>1442</v>
+        <v>1588</v>
       </c>
       <c r="H158" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9596,13 +9995,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="G159" t="s">
-        <v>1508</v>
+        <v>1589</v>
       </c>
       <c r="H159" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9622,13 +10021,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="G160" t="s">
-        <v>1525</v>
+        <v>1590</v>
       </c>
       <c r="H160" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9648,13 +10047,13 @@
         <v>1277</v>
       </c>
       <c r="F161" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G161" t="s">
-        <v>1066</v>
+        <v>1591</v>
       </c>
       <c r="H161" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9677,10 +10076,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1526</v>
+        <v>1475</v>
       </c>
       <c r="H162" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9700,13 +10099,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G163" t="s">
-        <v>1456</v>
+        <v>1592</v>
       </c>
       <c r="H163" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9726,13 +10125,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="G164" t="s">
-        <v>1527</v>
+        <v>1593</v>
       </c>
       <c r="H164" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9752,13 +10151,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1284</v>
+        <v>1385</v>
       </c>
       <c r="G165" t="s">
-        <v>1452</v>
+        <v>1594</v>
       </c>
       <c r="H165" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9784,7 +10183,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9804,13 +10203,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1277</v>
+        <v>1368</v>
       </c>
       <c r="G167" t="s">
-        <v>1456</v>
+        <v>1595</v>
       </c>
       <c r="H167" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9836,7 +10235,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9856,13 +10255,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G169" t="s">
-        <v>1452</v>
+        <v>1596</v>
       </c>
       <c r="H169" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9882,13 +10281,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G170" t="s">
-        <v>1528</v>
+        <v>1597</v>
       </c>
       <c r="H170" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9911,10 +10310,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1452</v>
+        <v>1546</v>
       </c>
       <c r="H171" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9934,13 +10333,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1277</v>
+        <v>1386</v>
       </c>
       <c r="G172" t="s">
-        <v>937</v>
+        <v>1598</v>
       </c>
       <c r="H172" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9960,13 +10359,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="G173" t="s">
-        <v>1529</v>
+        <v>1599</v>
       </c>
       <c r="H173" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9986,13 +10385,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G174" t="s">
-        <v>1069</v>
+        <v>1600</v>
       </c>
       <c r="H174" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10012,13 +10411,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
       <c r="G175" t="s">
-        <v>1453</v>
+        <v>1601</v>
       </c>
       <c r="H175" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10041,10 +10440,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1456</v>
+        <v>1493</v>
       </c>
       <c r="H176" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10064,13 +10463,13 @@
         <v>1276</v>
       </c>
       <c r="F177" t="s">
-        <v>1277</v>
+        <v>1353</v>
       </c>
       <c r="G177" t="s">
-        <v>1530</v>
+        <v>1602</v>
       </c>
       <c r="H177" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10093,10 +10492,10 @@
         <v>1277</v>
       </c>
       <c r="G178" t="s">
-        <v>1531</v>
+        <v>1603</v>
       </c>
       <c r="H178" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10116,13 +10515,13 @@
         <v>1276</v>
       </c>
       <c r="F179" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1532</v>
+        <v>1604</v>
       </c>
       <c r="H179" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10142,13 +10541,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1376</v>
+        <v>1389</v>
       </c>
       <c r="G180" t="s">
-        <v>1533</v>
+        <v>1605</v>
       </c>
       <c r="H180" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10168,13 +10567,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1346</v>
+        <v>1390</v>
       </c>
       <c r="G181" t="s">
-        <v>1534</v>
+        <v>1606</v>
       </c>
       <c r="H181" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10194,13 +10593,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="G182" t="s">
-        <v>1535</v>
+        <v>1607</v>
       </c>
       <c r="H182" t="s">
-        <v>1674</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10220,13 +10619,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="G183" t="s">
-        <v>1536</v>
+        <v>1608</v>
       </c>
       <c r="H183" t="s">
-        <v>1685</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10246,13 +10645,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="G184" t="s">
-        <v>1537</v>
+        <v>1609</v>
       </c>
       <c r="H184" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10272,13 +10671,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="G185" t="s">
-        <v>1538</v>
+        <v>1610</v>
       </c>
       <c r="H185" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10298,13 +10697,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1380</v>
+        <v>1277</v>
       </c>
       <c r="G186" t="s">
-        <v>1539</v>
+        <v>1604</v>
       </c>
       <c r="H186" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10324,13 +10723,13 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G187" t="s">
-        <v>993</v>
+        <v>1611</v>
       </c>
       <c r="H187" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10353,10 +10752,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1452</v>
+        <v>1546</v>
       </c>
       <c r="H188" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10379,10 +10778,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1540</v>
+        <v>1612</v>
       </c>
       <c r="H189" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10402,13 +10801,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1370</v>
+        <v>1393</v>
       </c>
       <c r="G190" t="s">
-        <v>1450</v>
+        <v>1613</v>
       </c>
       <c r="H190" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10428,13 +10827,13 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G191" t="s">
-        <v>1541</v>
+        <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10454,13 +10853,13 @@
         <v>1277</v>
       </c>
       <c r="F192" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G192" t="s">
-        <v>937</v>
+        <v>1614</v>
       </c>
       <c r="H192" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10483,10 +10882,10 @@
         <v>1277</v>
       </c>
       <c r="G193" t="s">
-        <v>993</v>
+        <v>1615</v>
       </c>
       <c r="H193" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10512,7 +10911,7 @@
         <v>952</v>
       </c>
       <c r="H194" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10538,7 +10937,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10558,13 +10957,13 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G196" t="s">
-        <v>1542</v>
+        <v>1616</v>
       </c>
       <c r="H196" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10584,13 +10983,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
       <c r="G197" t="s">
-        <v>1449</v>
+        <v>1617</v>
       </c>
       <c r="H197" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10610,13 +11009,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
       <c r="G198" t="s">
-        <v>1543</v>
+        <v>1618</v>
       </c>
       <c r="H198" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10636,13 +11035,13 @@
         <v>1277</v>
       </c>
       <c r="F199" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G199" t="s">
-        <v>1544</v>
+        <v>1619</v>
       </c>
       <c r="H199" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10668,7 +11067,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10691,10 +11090,10 @@
         <v>1284</v>
       </c>
       <c r="G201" t="s">
-        <v>1451</v>
+        <v>1521</v>
       </c>
       <c r="H201" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10720,7 +11119,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10739,8 +11138,14 @@
       <c r="E203" t="s">
         <v>1296</v>
       </c>
+      <c r="F203" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1620</v>
+      </c>
       <c r="H203" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10760,13 +11165,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1383</v>
+        <v>1342</v>
       </c>
       <c r="G204" t="s">
-        <v>1545</v>
+        <v>1621</v>
       </c>
       <c r="H204" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10786,13 +11191,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="G205" t="s">
-        <v>1517</v>
+        <v>1610</v>
       </c>
       <c r="H205" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10812,13 +11217,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G206" t="s">
-        <v>1517</v>
+        <v>1610</v>
       </c>
       <c r="H206" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10838,13 +11243,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="G207" t="s">
-        <v>1546</v>
+        <v>1622</v>
       </c>
       <c r="H207" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10864,13 +11269,13 @@
         <v>1284</v>
       </c>
       <c r="F208" t="s">
-        <v>1284</v>
+        <v>1397</v>
       </c>
       <c r="G208" t="s">
-        <v>1093</v>
+        <v>1623</v>
       </c>
       <c r="H208" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10890,13 +11295,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1366</v>
+        <v>1398</v>
       </c>
       <c r="G209" t="s">
-        <v>1547</v>
+        <v>1624</v>
       </c>
       <c r="H209" t="s">
-        <v>1682</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10916,13 +11321,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1277</v>
+        <v>1368</v>
       </c>
       <c r="G210" t="s">
-        <v>1548</v>
+        <v>1625</v>
       </c>
       <c r="H210" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10942,13 +11347,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="G211" t="s">
-        <v>1549</v>
+        <v>1626</v>
       </c>
       <c r="H211" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10968,13 +11373,13 @@
         <v>1275</v>
       </c>
       <c r="F212" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="G212" t="s">
-        <v>952</v>
+        <v>1627</v>
       </c>
       <c r="H212" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10994,13 +11399,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1277</v>
+        <v>1368</v>
       </c>
       <c r="G213" t="s">
-        <v>937</v>
+        <v>1628</v>
       </c>
       <c r="H213" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11020,13 +11425,13 @@
         <v>1276</v>
       </c>
       <c r="F214" t="s">
-        <v>1380</v>
+        <v>1342</v>
       </c>
       <c r="G214" t="s">
-        <v>1550</v>
+        <v>1629</v>
       </c>
       <c r="H214" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11049,10 +11454,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1526</v>
+        <v>1630</v>
       </c>
       <c r="H215" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11072,13 +11477,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1386</v>
+        <v>1336</v>
       </c>
       <c r="G216" t="s">
-        <v>1551</v>
+        <v>1631</v>
       </c>
       <c r="H216" t="s">
-        <v>1686</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11098,13 +11503,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G217" t="s">
-        <v>1552</v>
+        <v>1632</v>
       </c>
       <c r="H217" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11127,10 +11532,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1451</v>
+        <v>1521</v>
       </c>
       <c r="H218" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11150,13 +11555,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1341</v>
+        <v>1391</v>
       </c>
       <c r="G219" t="s">
-        <v>1553</v>
+        <v>1633</v>
       </c>
       <c r="H219" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11179,10 +11584,10 @@
         <v>1277</v>
       </c>
       <c r="G220" t="s">
-        <v>1486</v>
+        <v>1528</v>
       </c>
       <c r="H220" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11202,13 +11607,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
       <c r="G221" t="s">
-        <v>1554</v>
+        <v>1634</v>
       </c>
       <c r="H221" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11228,13 +11633,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="G222" t="s">
-        <v>1555</v>
+        <v>1635</v>
       </c>
       <c r="H222" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11254,13 +11659,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1346</v>
+        <v>1401</v>
       </c>
       <c r="G223" t="s">
-        <v>1556</v>
+        <v>1636</v>
       </c>
       <c r="H223" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11280,13 +11685,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1275</v>
+        <v>1363</v>
       </c>
       <c r="G224" t="s">
-        <v>952</v>
+        <v>1637</v>
       </c>
       <c r="H224" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11306,13 +11711,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G225" t="s">
-        <v>1556</v>
+        <v>952</v>
       </c>
       <c r="H225" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11332,13 +11737,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="G226" t="s">
-        <v>1557</v>
+        <v>1638</v>
       </c>
       <c r="H226" t="s">
-        <v>1687</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11358,13 +11763,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="G227" t="s">
-        <v>1558</v>
+        <v>1639</v>
       </c>
       <c r="H227" t="s">
-        <v>1688</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11384,13 +11789,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1371</v>
+        <v>1404</v>
       </c>
       <c r="G228" t="s">
-        <v>1559</v>
+        <v>1640</v>
       </c>
       <c r="H228" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11416,7 +11821,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11442,7 +11847,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11468,7 +11873,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11488,13 +11893,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G232" t="s">
-        <v>1560</v>
+        <v>1641</v>
       </c>
       <c r="H232" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11514,13 +11919,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1347</v>
+        <v>1405</v>
       </c>
       <c r="G233" t="s">
-        <v>1454</v>
+        <v>1642</v>
       </c>
       <c r="H233" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11540,13 +11945,13 @@
         <v>1293</v>
       </c>
       <c r="F234" t="s">
-        <v>1293</v>
+        <v>1355</v>
       </c>
       <c r="G234" t="s">
-        <v>1453</v>
+        <v>1643</v>
       </c>
       <c r="H234" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11572,7 +11977,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11595,10 +12000,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1561</v>
+        <v>1644</v>
       </c>
       <c r="H236" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11621,10 +12026,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1453</v>
+        <v>1645</v>
       </c>
       <c r="H237" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11644,13 +12049,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G238" t="s">
-        <v>1562</v>
+        <v>1646</v>
       </c>
       <c r="H238" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11670,13 +12075,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1388</v>
+        <v>1363</v>
       </c>
       <c r="G239" t="s">
-        <v>1563</v>
+        <v>1481</v>
       </c>
       <c r="H239" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11696,13 +12101,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="G240" t="s">
-        <v>1527</v>
+        <v>1647</v>
       </c>
       <c r="H240" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11722,13 +12127,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1275</v>
+        <v>1407</v>
       </c>
       <c r="G241" t="s">
-        <v>935</v>
+        <v>1648</v>
       </c>
       <c r="H241" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11748,13 +12153,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1390</v>
+        <v>1408</v>
       </c>
       <c r="G242" t="s">
-        <v>1564</v>
+        <v>1649</v>
       </c>
       <c r="H242" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11774,13 +12179,13 @@
         <v>1275</v>
       </c>
       <c r="F243" t="s">
-        <v>1275</v>
+        <v>1401</v>
       </c>
       <c r="G243" t="s">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="H243" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11800,13 +12205,13 @@
         <v>1284</v>
       </c>
       <c r="F244" t="s">
-        <v>1277</v>
+        <v>1400</v>
       </c>
       <c r="G244" t="s">
-        <v>972</v>
+        <v>1651</v>
       </c>
       <c r="H244" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11826,13 +12231,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1366</v>
+        <v>1409</v>
       </c>
       <c r="G245" t="s">
-        <v>1565</v>
+        <v>1652</v>
       </c>
       <c r="H245" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11852,13 +12257,13 @@
         <v>1284</v>
       </c>
       <c r="F246" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1566</v>
+        <v>1653</v>
       </c>
       <c r="H246" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11878,13 +12283,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="G247" t="s">
-        <v>1519</v>
+        <v>1654</v>
       </c>
       <c r="H247" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11904,13 +12309,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1346</v>
+        <v>1393</v>
       </c>
       <c r="G248" t="s">
-        <v>1450</v>
+        <v>1655</v>
       </c>
       <c r="H248" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11930,13 +12335,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G249" t="s">
-        <v>1567</v>
+        <v>1493</v>
       </c>
       <c r="H249" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11956,13 +12361,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1392</v>
+        <v>1410</v>
       </c>
       <c r="G250" t="s">
-        <v>1568</v>
+        <v>1481</v>
       </c>
       <c r="H250" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11988,7 +12393,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12008,13 +12413,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1275</v>
+        <v>1391</v>
       </c>
       <c r="G252" t="s">
-        <v>1441</v>
+        <v>1656</v>
       </c>
       <c r="H252" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12034,13 +12439,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1393</v>
+        <v>1363</v>
       </c>
       <c r="G253" t="s">
-        <v>1569</v>
+        <v>1657</v>
       </c>
       <c r="H253" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12060,13 +12465,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1394</v>
+        <v>1411</v>
       </c>
       <c r="G254" t="s">
-        <v>1570</v>
+        <v>1658</v>
       </c>
       <c r="H254" t="s">
-        <v>1670</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12092,7 +12497,7 @@
         <v>963</v>
       </c>
       <c r="H255" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12112,13 +12517,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1381</v>
+        <v>1275</v>
       </c>
       <c r="G256" t="s">
-        <v>1496</v>
+        <v>952</v>
       </c>
       <c r="H256" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12138,13 +12543,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1347</v>
+        <v>1275</v>
       </c>
       <c r="G257" t="s">
-        <v>1571</v>
+        <v>1164</v>
       </c>
       <c r="H257" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12164,13 +12569,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1359</v>
+        <v>1275</v>
       </c>
       <c r="G258" t="s">
-        <v>1572</v>
+        <v>952</v>
       </c>
       <c r="H258" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12196,7 +12601,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12216,13 +12621,13 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G260" t="s">
-        <v>1573</v>
+        <v>972</v>
       </c>
       <c r="H260" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12242,13 +12647,13 @@
         <v>1278</v>
       </c>
       <c r="F261" t="s">
-        <v>1395</v>
+        <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1574</v>
+        <v>1645</v>
       </c>
       <c r="H261" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12268,13 +12673,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1396</v>
+        <v>1351</v>
       </c>
       <c r="G262" t="s">
-        <v>1575</v>
+        <v>1485</v>
       </c>
       <c r="H262" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12294,13 +12699,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1277</v>
+        <v>1400</v>
       </c>
       <c r="G263" t="s">
-        <v>1451</v>
+        <v>1659</v>
       </c>
       <c r="H263" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12326,7 +12731,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12349,10 +12754,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1453</v>
+        <v>1645</v>
       </c>
       <c r="H265" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12372,13 +12777,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="G266" t="s">
-        <v>1576</v>
+        <v>1660</v>
       </c>
       <c r="H266" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12398,13 +12803,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1413</v>
       </c>
       <c r="G267" t="s">
-        <v>972</v>
+        <v>1661</v>
       </c>
       <c r="H267" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12424,13 +12829,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1398</v>
+        <v>1414</v>
       </c>
       <c r="G268" t="s">
-        <v>1577</v>
+        <v>1662</v>
       </c>
       <c r="H268" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12450,13 +12855,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G269" t="s">
-        <v>1578</v>
+        <v>1663</v>
       </c>
       <c r="H269" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12476,13 +12881,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1399</v>
+        <v>1415</v>
       </c>
       <c r="G270" t="s">
-        <v>1579</v>
+        <v>1664</v>
       </c>
       <c r="H270" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12502,13 +12907,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1400</v>
+        <v>1416</v>
       </c>
       <c r="G271" t="s">
-        <v>1580</v>
+        <v>1665</v>
       </c>
       <c r="H271" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12528,13 +12933,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1401</v>
+        <v>1417</v>
       </c>
       <c r="G272" t="s">
-        <v>1581</v>
+        <v>1666</v>
       </c>
       <c r="H272" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12554,13 +12959,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1374</v>
+        <v>1418</v>
       </c>
       <c r="G273" t="s">
-        <v>1582</v>
+        <v>1667</v>
       </c>
       <c r="H273" t="s">
-        <v>1675</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12580,13 +12985,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1402</v>
+        <v>1419</v>
       </c>
       <c r="G274" t="s">
-        <v>1583</v>
+        <v>1668</v>
       </c>
       <c r="H274" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12606,13 +13011,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1345</v>
+        <v>1420</v>
       </c>
       <c r="G275" t="s">
-        <v>1584</v>
+        <v>1669</v>
       </c>
       <c r="H275" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12632,13 +13037,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="G276" t="s">
-        <v>1585</v>
+        <v>937</v>
       </c>
       <c r="H276" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12661,10 +13066,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1456</v>
+        <v>1493</v>
       </c>
       <c r="H277" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12684,13 +13089,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1357</v>
+        <v>1421</v>
       </c>
       <c r="G278" t="s">
-        <v>1474</v>
+        <v>1670</v>
       </c>
       <c r="H278" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12710,13 +13115,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1403</v>
+        <v>1422</v>
       </c>
       <c r="G279" t="s">
-        <v>1586</v>
+        <v>1671</v>
       </c>
       <c r="H279" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12736,13 +13141,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1354</v>
+        <v>1423</v>
       </c>
       <c r="G280" t="s">
-        <v>1587</v>
+        <v>1672</v>
       </c>
       <c r="H280" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12762,13 +13167,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G281" t="s">
-        <v>1588</v>
+        <v>1521</v>
       </c>
       <c r="H281" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12788,13 +13193,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G282" t="s">
-        <v>1451</v>
+        <v>1673</v>
       </c>
       <c r="H282" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12814,13 +13219,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1275</v>
+        <v>1424</v>
       </c>
       <c r="G283" t="s">
-        <v>952</v>
+        <v>1674</v>
       </c>
       <c r="H283" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12840,13 +13245,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1277</v>
+        <v>1390</v>
       </c>
       <c r="G284" t="s">
-        <v>1452</v>
+        <v>1675</v>
       </c>
       <c r="H284" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12866,13 +13271,13 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="G285" t="s">
-        <v>1589</v>
+        <v>1676</v>
       </c>
       <c r="H285" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12892,13 +13297,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1347</v>
+        <v>1390</v>
       </c>
       <c r="G286" t="s">
-        <v>1590</v>
+        <v>1677</v>
       </c>
       <c r="H286" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12918,13 +13323,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="G287" t="s">
-        <v>1591</v>
+        <v>1678</v>
       </c>
       <c r="H287" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12947,10 +13352,10 @@
         <v>1284</v>
       </c>
       <c r="G288" t="s">
-        <v>1119</v>
+        <v>1679</v>
       </c>
       <c r="H288" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12976,7 +13381,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12996,13 +13401,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="G290" t="s">
-        <v>1592</v>
+        <v>1680</v>
       </c>
       <c r="H290" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13022,13 +13427,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1347</v>
+        <v>1427</v>
       </c>
       <c r="G291" t="s">
-        <v>1593</v>
+        <v>1681</v>
       </c>
       <c r="H291" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13048,13 +13453,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1406</v>
+        <v>1428</v>
       </c>
       <c r="G292" t="s">
-        <v>1594</v>
+        <v>1682</v>
       </c>
       <c r="H292" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13074,13 +13479,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="G293" t="s">
-        <v>1592</v>
+        <v>1680</v>
       </c>
       <c r="H293" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13103,10 +13508,10 @@
         <v>1277</v>
       </c>
       <c r="G294" t="s">
-        <v>1531</v>
+        <v>1683</v>
       </c>
       <c r="H294" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13126,13 +13531,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1277</v>
+        <v>1368</v>
       </c>
       <c r="G295" t="s">
-        <v>1530</v>
+        <v>1684</v>
       </c>
       <c r="H295" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13152,13 +13557,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="G296" t="s">
-        <v>1571</v>
+        <v>1685</v>
       </c>
       <c r="H296" t="s">
-        <v>1675</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13178,13 +13583,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1370</v>
+        <v>1429</v>
       </c>
       <c r="G297" t="s">
-        <v>1595</v>
+        <v>1686</v>
       </c>
       <c r="H297" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13204,13 +13609,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1346</v>
+        <v>1275</v>
       </c>
       <c r="G298" t="s">
-        <v>1578</v>
+        <v>1512</v>
       </c>
       <c r="H298" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13230,13 +13635,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="G299" t="s">
-        <v>1596</v>
+        <v>1687</v>
       </c>
       <c r="H299" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13256,13 +13661,13 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G300" t="s">
-        <v>1541</v>
+        <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13288,7 +13693,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13308,13 +13713,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1370</v>
+        <v>1394</v>
       </c>
       <c r="G302" t="s">
-        <v>1512</v>
+        <v>1688</v>
       </c>
       <c r="H302" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13334,13 +13739,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1407</v>
+        <v>1336</v>
       </c>
       <c r="G303" t="s">
-        <v>1597</v>
+        <v>1689</v>
       </c>
       <c r="H303" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13360,13 +13765,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1284</v>
+        <v>1430</v>
       </c>
       <c r="G304" t="s">
-        <v>1093</v>
+        <v>1690</v>
       </c>
       <c r="H304" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13386,13 +13791,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1275</v>
+        <v>1348</v>
       </c>
       <c r="G305" t="s">
-        <v>952</v>
+        <v>1691</v>
       </c>
       <c r="H305" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13412,13 +13817,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G306" t="s">
-        <v>1530</v>
+        <v>955</v>
       </c>
       <c r="H306" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13438,13 +13843,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1397</v>
+        <v>1275</v>
       </c>
       <c r="G307" t="s">
-        <v>1598</v>
+        <v>1692</v>
       </c>
       <c r="H307" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13464,13 +13869,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="G308" t="s">
-        <v>1465</v>
+        <v>1693</v>
       </c>
       <c r="H308" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13490,13 +13895,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1408</v>
+        <v>1432</v>
       </c>
       <c r="G309" t="s">
-        <v>1599</v>
+        <v>1694</v>
       </c>
       <c r="H309" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13522,7 +13927,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13542,13 +13947,13 @@
         <v>1278</v>
       </c>
       <c r="F311" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G311" t="s">
-        <v>1600</v>
+        <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13568,13 +13973,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1275</v>
+        <v>1348</v>
       </c>
       <c r="G312" t="s">
-        <v>935</v>
+        <v>1695</v>
       </c>
       <c r="H312" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13600,7 +14005,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13620,13 +14025,13 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
       <c r="G314" t="s">
-        <v>1453</v>
+        <v>1504</v>
       </c>
       <c r="H314" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13652,7 +14057,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13672,13 +14077,13 @@
         <v>1284</v>
       </c>
       <c r="F316" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G316" t="s">
-        <v>1093</v>
+        <v>1696</v>
       </c>
       <c r="H316" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13698,13 +14103,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1284</v>
+        <v>1404</v>
       </c>
       <c r="G317" t="s">
-        <v>972</v>
+        <v>1697</v>
       </c>
       <c r="H317" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13724,13 +14129,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1371</v>
+        <v>1412</v>
       </c>
       <c r="G318" t="s">
-        <v>1601</v>
+        <v>1698</v>
       </c>
       <c r="H318" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13750,13 +14155,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1275</v>
+        <v>1343</v>
       </c>
       <c r="G319" t="s">
-        <v>952</v>
+        <v>1699</v>
       </c>
       <c r="H319" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13782,7 +14187,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13802,13 +14207,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1400</v>
+        <v>1431</v>
       </c>
       <c r="G321" t="s">
-        <v>1602</v>
+        <v>1700</v>
       </c>
       <c r="H321" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13828,13 +14233,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1409</v>
+        <v>1433</v>
       </c>
       <c r="G322" t="s">
-        <v>1603</v>
+        <v>1701</v>
       </c>
       <c r="H322" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13854,13 +14259,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G323" t="s">
-        <v>1512</v>
+        <v>1565</v>
       </c>
       <c r="H323" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13880,13 +14285,13 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G324" t="s">
-        <v>1440</v>
+        <v>1485</v>
       </c>
       <c r="H324" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13912,7 +14317,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13932,13 +14337,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G326" t="s">
-        <v>1093</v>
+        <v>1702</v>
       </c>
       <c r="H326" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13958,13 +14363,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1371</v>
+        <v>1434</v>
       </c>
       <c r="G327" t="s">
-        <v>1604</v>
+        <v>1703</v>
       </c>
       <c r="H327" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13987,10 +14392,10 @@
         <v>1284</v>
       </c>
       <c r="G328" t="s">
-        <v>1456</v>
+        <v>1493</v>
       </c>
       <c r="H328" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14010,13 +14415,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1275</v>
+        <v>1348</v>
       </c>
       <c r="G329" t="s">
-        <v>935</v>
+        <v>1704</v>
       </c>
       <c r="H329" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14036,13 +14441,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="G330" t="s">
-        <v>1605</v>
+        <v>1705</v>
       </c>
       <c r="H330" t="s">
-        <v>1674</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14068,7 +14473,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14094,7 +14499,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14114,13 +14519,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G333" t="s">
-        <v>935</v>
+        <v>1706</v>
       </c>
       <c r="H333" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14140,13 +14545,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G334" t="s">
-        <v>1069</v>
+        <v>1707</v>
       </c>
       <c r="H334" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14166,13 +14571,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1371</v>
+        <v>1435</v>
       </c>
       <c r="G335" t="s">
-        <v>1606</v>
+        <v>1708</v>
       </c>
       <c r="H335" t="s">
-        <v>1689</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14192,13 +14597,13 @@
         <v>1284</v>
       </c>
       <c r="F336" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
       <c r="G336" t="s">
-        <v>1452</v>
+        <v>1709</v>
       </c>
       <c r="H336" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14218,13 +14623,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1400</v>
+        <v>1436</v>
       </c>
       <c r="G337" t="s">
-        <v>1582</v>
+        <v>1710</v>
       </c>
       <c r="H337" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14244,13 +14649,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1284</v>
+        <v>1404</v>
       </c>
       <c r="G338" t="s">
-        <v>1456</v>
+        <v>1711</v>
       </c>
       <c r="H338" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14270,13 +14675,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1381</v>
+        <v>1284</v>
       </c>
       <c r="G339" t="s">
-        <v>1607</v>
+        <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14299,10 +14704,10 @@
         <v>1284</v>
       </c>
       <c r="G340" t="s">
-        <v>1184</v>
+        <v>1712</v>
       </c>
       <c r="H340" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14322,13 +14727,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
       <c r="G341" t="s">
-        <v>1453</v>
+        <v>1713</v>
       </c>
       <c r="H341" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14348,13 +14753,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1371</v>
+        <v>1437</v>
       </c>
       <c r="G342" t="s">
-        <v>1527</v>
+        <v>1714</v>
       </c>
       <c r="H342" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14374,13 +14779,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1410</v>
+        <v>1372</v>
       </c>
       <c r="G343" t="s">
-        <v>1608</v>
+        <v>1715</v>
       </c>
       <c r="H343" t="s">
-        <v>1674</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14400,13 +14805,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1400</v>
+        <v>1431</v>
       </c>
       <c r="G344" t="s">
-        <v>1602</v>
+        <v>1700</v>
       </c>
       <c r="H344" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14426,13 +14831,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1388</v>
+        <v>1438</v>
       </c>
       <c r="G345" t="s">
-        <v>1609</v>
+        <v>1716</v>
       </c>
       <c r="H345" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14455,10 +14860,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1610</v>
+        <v>1717</v>
       </c>
       <c r="H346" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14478,13 +14883,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G347" t="s">
-        <v>1611</v>
+        <v>1718</v>
       </c>
       <c r="H347" t="s">
-        <v>1690</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14504,13 +14909,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G348" t="s">
-        <v>1450</v>
+        <v>1483</v>
       </c>
       <c r="H348" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14530,13 +14935,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G349" t="s">
-        <v>1612</v>
+        <v>1719</v>
       </c>
       <c r="H349" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14556,13 +14961,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1352</v>
+        <v>1439</v>
       </c>
       <c r="G350" t="s">
-        <v>1462</v>
+        <v>1720</v>
       </c>
       <c r="H350" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14582,13 +14987,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1412</v>
+        <v>1359</v>
       </c>
       <c r="G351" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="H351" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14608,13 +15013,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1413</v>
+        <v>1440</v>
       </c>
       <c r="G352" t="s">
-        <v>1614</v>
+        <v>1721</v>
       </c>
       <c r="H352" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14634,13 +15039,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1275</v>
+        <v>1344</v>
       </c>
       <c r="G353" t="s">
-        <v>952</v>
+        <v>1722</v>
       </c>
       <c r="H353" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14666,7 +15071,7 @@
         <v>955</v>
       </c>
       <c r="H354" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14686,13 +15091,13 @@
         <v>1297</v>
       </c>
       <c r="F355" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G355" t="s">
-        <v>1093</v>
+        <v>1723</v>
       </c>
       <c r="H355" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14712,13 +15117,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G356" t="s">
-        <v>1450</v>
+        <v>1483</v>
       </c>
       <c r="H356" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14738,13 +15143,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1357</v>
+        <v>1409</v>
       </c>
       <c r="G357" t="s">
-        <v>1474</v>
+        <v>1670</v>
       </c>
       <c r="H357" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14764,13 +15169,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1414</v>
+        <v>1441</v>
       </c>
       <c r="G358" t="s">
-        <v>1615</v>
+        <v>1724</v>
       </c>
       <c r="H358" t="s">
-        <v>1678</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14790,13 +15195,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G359" t="s">
-        <v>972</v>
+        <v>1725</v>
       </c>
       <c r="H359" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14816,13 +15221,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="G360" t="s">
-        <v>1616</v>
+        <v>1726</v>
       </c>
       <c r="H360" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14842,13 +15247,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1415</v>
+        <v>1442</v>
       </c>
       <c r="G361" t="s">
-        <v>1617</v>
+        <v>1727</v>
       </c>
       <c r="H361" t="s">
-        <v>1691</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14868,13 +15273,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1284</v>
+        <v>1443</v>
       </c>
       <c r="G362" t="s">
-        <v>1446</v>
+        <v>1728</v>
       </c>
       <c r="H362" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14897,10 +15302,10 @@
         <v>1284</v>
       </c>
       <c r="G363" t="s">
-        <v>1201</v>
+        <v>1729</v>
       </c>
       <c r="H363" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14920,13 +15325,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1350</v>
+        <v>1397</v>
       </c>
       <c r="G364" t="s">
-        <v>1485</v>
+        <v>1730</v>
       </c>
       <c r="H364" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14946,13 +15351,13 @@
         <v>1297</v>
       </c>
       <c r="F365" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1505</v>
+        <v>1731</v>
       </c>
       <c r="H365" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14972,13 +15377,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1416</v>
+        <v>1444</v>
       </c>
       <c r="G366" t="s">
-        <v>1618</v>
+        <v>1732</v>
       </c>
       <c r="H366" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14998,13 +15403,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1374</v>
+        <v>1445</v>
       </c>
       <c r="G367" t="s">
-        <v>1582</v>
+        <v>1733</v>
       </c>
       <c r="H367" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15024,13 +15429,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="G368" t="s">
-        <v>1619</v>
+        <v>1734</v>
       </c>
       <c r="H368" t="s">
-        <v>1692</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15050,13 +15455,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1418</v>
+        <v>1431</v>
       </c>
       <c r="G369" t="s">
-        <v>1601</v>
+        <v>1735</v>
       </c>
       <c r="H369" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15076,13 +15481,13 @@
         <v>1284</v>
       </c>
       <c r="F370" t="s">
-        <v>1418</v>
+        <v>1293</v>
       </c>
       <c r="G370" t="s">
-        <v>1620</v>
+        <v>1736</v>
       </c>
       <c r="H370" t="s">
-        <v>1667</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15102,13 +15507,13 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1621</v>
+        <v>1537</v>
       </c>
       <c r="H371" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15128,13 +15533,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1371</v>
+        <v>1404</v>
       </c>
       <c r="G372" t="s">
-        <v>1472</v>
+        <v>1737</v>
       </c>
       <c r="H372" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15154,13 +15559,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1401</v>
+        <v>1337</v>
       </c>
       <c r="G373" t="s">
-        <v>1622</v>
+        <v>1738</v>
       </c>
       <c r="H373" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15180,13 +15585,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1419</v>
+        <v>1356</v>
       </c>
       <c r="G374" t="s">
-        <v>1623</v>
+        <v>1739</v>
       </c>
       <c r="H374" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15206,13 +15611,13 @@
         <v>1278</v>
       </c>
       <c r="F375" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G375" t="s">
-        <v>1624</v>
+        <v>1740</v>
       </c>
       <c r="H375" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15232,13 +15637,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="G376" t="s">
-        <v>1625</v>
+        <v>1741</v>
       </c>
       <c r="H376" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15258,13 +15663,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1379</v>
+        <v>1284</v>
       </c>
       <c r="G377" t="s">
-        <v>1626</v>
+        <v>1742</v>
       </c>
       <c r="H377" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15284,7 +15689,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15307,10 +15712,10 @@
         <v>1284</v>
       </c>
       <c r="G379" t="s">
-        <v>1119</v>
+        <v>1743</v>
       </c>
       <c r="H379" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15330,13 +15735,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1401</v>
+        <v>1446</v>
       </c>
       <c r="G380" t="s">
-        <v>1592</v>
+        <v>1744</v>
       </c>
       <c r="H380" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15356,13 +15761,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1401</v>
+        <v>1447</v>
       </c>
       <c r="G381" t="s">
-        <v>1581</v>
+        <v>1745</v>
       </c>
       <c r="H381" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15382,13 +15787,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="G382" t="s">
-        <v>1627</v>
+        <v>1746</v>
       </c>
       <c r="H382" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15408,13 +15813,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1420</v>
+        <v>1448</v>
       </c>
       <c r="G383" t="s">
-        <v>1628</v>
+        <v>1747</v>
       </c>
       <c r="H383" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15434,13 +15839,13 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G384" t="s">
-        <v>1629</v>
+        <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15463,10 +15868,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1453</v>
+        <v>1645</v>
       </c>
       <c r="H385" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15486,13 +15891,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1421</v>
+        <v>1449</v>
       </c>
       <c r="G386" t="s">
-        <v>1630</v>
+        <v>1748</v>
       </c>
       <c r="H386" t="s">
-        <v>1693</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15512,13 +15917,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1422</v>
+        <v>1450</v>
       </c>
       <c r="G387" t="s">
-        <v>1631</v>
+        <v>1749</v>
       </c>
       <c r="H387" t="s">
-        <v>1684</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15538,13 +15943,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
       <c r="G388" t="s">
-        <v>1632</v>
+        <v>1649</v>
       </c>
       <c r="H388" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15564,13 +15969,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="G389" t="s">
-        <v>1605</v>
+        <v>1705</v>
       </c>
       <c r="H389" t="s">
-        <v>1683</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15590,13 +15995,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1401</v>
+        <v>1361</v>
       </c>
       <c r="G390" t="s">
-        <v>1633</v>
+        <v>1750</v>
       </c>
       <c r="H390" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15622,7 +16027,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15642,13 +16047,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1397</v>
+        <v>1356</v>
       </c>
       <c r="G392" t="s">
-        <v>1634</v>
+        <v>1751</v>
       </c>
       <c r="H392" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15668,13 +16073,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="G393" t="s">
-        <v>1527</v>
+        <v>1593</v>
       </c>
       <c r="H393" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15694,13 +16099,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G394" t="s">
-        <v>1453</v>
+        <v>1504</v>
       </c>
       <c r="H394" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15726,7 +16131,7 @@
         <v>972</v>
       </c>
       <c r="H395" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15749,10 +16154,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1451</v>
+        <v>1521</v>
       </c>
       <c r="H396" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15772,13 +16177,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="G397" t="s">
-        <v>1452</v>
+        <v>1752</v>
       </c>
       <c r="H397" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15798,13 +16203,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G398" t="s">
-        <v>1093</v>
+        <v>1753</v>
       </c>
       <c r="H398" t="s">
-        <v>1678</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15824,13 +16229,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1371</v>
+        <v>1451</v>
       </c>
       <c r="G399" t="s">
-        <v>1601</v>
+        <v>1754</v>
       </c>
       <c r="H399" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15850,13 +16255,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="G400" t="s">
-        <v>1069</v>
+        <v>1755</v>
       </c>
       <c r="H400" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15876,13 +16281,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1396</v>
+        <v>1453</v>
       </c>
       <c r="G401" t="s">
-        <v>1592</v>
+        <v>1756</v>
       </c>
       <c r="H401" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15902,13 +16307,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G402" t="s">
-        <v>1635</v>
+        <v>1093</v>
       </c>
       <c r="H402" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15928,13 +16333,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G403" t="s">
-        <v>1636</v>
+        <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15954,13 +16359,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
       <c r="G404" t="s">
-        <v>1632</v>
+        <v>1757</v>
       </c>
       <c r="H404" t="s">
-        <v>1694</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15979,8 +16384,14 @@
       <c r="E405" t="s">
         <v>1293</v>
       </c>
+      <c r="F405" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1758</v>
+      </c>
       <c r="H405" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16000,13 +16411,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G406" t="s">
-        <v>1637</v>
+        <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16026,13 +16437,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G407" t="s">
-        <v>1530</v>
+        <v>1653</v>
       </c>
       <c r="H407" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16052,13 +16463,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G408" t="s">
-        <v>1638</v>
+        <v>1583</v>
       </c>
       <c r="H408" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16078,13 +16489,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G409" t="s">
-        <v>1639</v>
+        <v>1759</v>
       </c>
       <c r="H409" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16104,13 +16515,13 @@
         <v>1284</v>
       </c>
       <c r="F410" t="s">
-        <v>1284</v>
+        <v>1404</v>
       </c>
       <c r="G410" t="s">
-        <v>1093</v>
+        <v>1760</v>
       </c>
       <c r="H410" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16130,13 +16541,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1424</v>
+        <v>1348</v>
       </c>
       <c r="G411" t="s">
-        <v>1640</v>
+        <v>1761</v>
       </c>
       <c r="H411" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16159,10 +16570,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1530</v>
+        <v>1762</v>
       </c>
       <c r="H412" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16182,13 +16593,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1413</v>
       </c>
       <c r="G413" t="s">
-        <v>972</v>
+        <v>1763</v>
       </c>
       <c r="H413" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16214,7 +16625,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16234,13 +16645,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1390</v>
+        <v>1454</v>
       </c>
       <c r="G415" t="s">
-        <v>1641</v>
+        <v>1764</v>
       </c>
       <c r="H415" t="s">
-        <v>1681</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16263,10 +16674,10 @@
         <v>1284</v>
       </c>
       <c r="G416" t="s">
-        <v>1451</v>
+        <v>1521</v>
       </c>
       <c r="H416" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16286,13 +16697,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="G417" t="s">
-        <v>1605</v>
+        <v>1705</v>
       </c>
       <c r="H417" t="s">
-        <v>1680</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16312,13 +16723,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1373</v>
+        <v>1429</v>
       </c>
       <c r="G418" t="s">
-        <v>1642</v>
+        <v>1765</v>
       </c>
       <c r="H418" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16338,13 +16749,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G419" t="s">
-        <v>1643</v>
+        <v>1766</v>
       </c>
       <c r="H419" t="s">
-        <v>1695</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16364,13 +16775,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G420" t="s">
-        <v>1456</v>
+        <v>1767</v>
       </c>
       <c r="H420" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16390,13 +16801,13 @@
         <v>1284</v>
       </c>
       <c r="F421" t="s">
-        <v>1425</v>
+        <v>1336</v>
       </c>
       <c r="G421" t="s">
-        <v>1644</v>
+        <v>1768</v>
       </c>
       <c r="H421" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16416,13 +16827,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G422" t="s">
-        <v>1508</v>
+        <v>1558</v>
       </c>
       <c r="H422" t="s">
-        <v>1682</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16442,13 +16853,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="G423" t="s">
-        <v>1605</v>
+        <v>1705</v>
       </c>
       <c r="H423" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16468,13 +16879,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1426</v>
+        <v>1455</v>
       </c>
       <c r="G424" t="s">
-        <v>1645</v>
+        <v>1769</v>
       </c>
       <c r="H424" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16494,13 +16905,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="G425" t="s">
-        <v>1646</v>
+        <v>1770</v>
       </c>
       <c r="H425" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16520,13 +16931,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
       <c r="G426" t="s">
-        <v>1605</v>
+        <v>1705</v>
       </c>
       <c r="H426" t="s">
-        <v>1669</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16552,7 +16963,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16578,7 +16989,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16598,13 +17009,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G429" t="s">
-        <v>1629</v>
+        <v>1069</v>
       </c>
       <c r="H429" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16624,13 +17035,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="G430" t="s">
-        <v>1442</v>
+        <v>1473</v>
       </c>
       <c r="H430" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16650,13 +17061,13 @@
         <v>1284</v>
       </c>
       <c r="F431" t="s">
-        <v>1355</v>
+        <v>1284</v>
       </c>
       <c r="G431" t="s">
-        <v>1647</v>
+        <v>1584</v>
       </c>
       <c r="H431" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16676,13 +17087,13 @@
         <v>1278</v>
       </c>
       <c r="F432" t="s">
-        <v>1293</v>
+        <v>1388</v>
       </c>
       <c r="G432" t="s">
-        <v>1453</v>
+        <v>1771</v>
       </c>
       <c r="H432" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16702,13 +17113,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1277</v>
+        <v>1381</v>
       </c>
       <c r="G433" t="s">
-        <v>1531</v>
+        <v>1772</v>
       </c>
       <c r="H433" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16728,13 +17139,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1284</v>
+        <v>1359</v>
       </c>
       <c r="G434" t="s">
-        <v>1548</v>
+        <v>1773</v>
       </c>
       <c r="H434" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16754,13 +17165,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="G435" t="s">
-        <v>1648</v>
+        <v>1774</v>
       </c>
       <c r="H435" t="s">
-        <v>1696</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16780,13 +17191,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1284</v>
+        <v>1456</v>
       </c>
       <c r="G436" t="s">
-        <v>1093</v>
+        <v>1775</v>
       </c>
       <c r="H436" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16806,13 +17217,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1277</v>
+        <v>1365</v>
       </c>
       <c r="G437" t="s">
-        <v>972</v>
+        <v>1776</v>
       </c>
       <c r="H437" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16832,13 +17243,13 @@
         <v>1293</v>
       </c>
       <c r="F438" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G438" t="s">
-        <v>1649</v>
+        <v>1777</v>
       </c>
       <c r="H438" t="s">
-        <v>1692</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16858,13 +17269,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1428</v>
+        <v>1457</v>
       </c>
       <c r="G439" t="s">
-        <v>1650</v>
+        <v>1778</v>
       </c>
       <c r="H439" t="s">
-        <v>1683</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16890,7 +17301,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16910,13 +17321,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1284</v>
+        <v>1399</v>
       </c>
       <c r="G441" t="s">
-        <v>1531</v>
+        <v>1779</v>
       </c>
       <c r="H441" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16936,13 +17347,13 @@
         <v>1284</v>
       </c>
       <c r="F442" t="s">
-        <v>1284</v>
+        <v>1356</v>
       </c>
       <c r="G442" t="s">
-        <v>1093</v>
+        <v>1723</v>
       </c>
       <c r="H442" t="s">
-        <v>1665</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16965,10 +17376,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1651</v>
+        <v>1740</v>
       </c>
       <c r="H443" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16988,13 +17399,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1477</v>
+        <v>1780</v>
       </c>
       <c r="H444" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17014,13 +17425,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1429</v>
+        <v>1353</v>
       </c>
       <c r="G445" t="s">
-        <v>1652</v>
+        <v>1781</v>
       </c>
       <c r="H445" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17040,13 +17451,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G446" t="s">
-        <v>1477</v>
+        <v>1780</v>
       </c>
       <c r="H446" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17066,13 +17477,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1355</v>
+        <v>1431</v>
       </c>
       <c r="G447" t="s">
-        <v>1653</v>
+        <v>1782</v>
       </c>
       <c r="H447" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17092,13 +17503,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G448" t="s">
-        <v>1493</v>
+        <v>1783</v>
       </c>
       <c r="H448" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17118,13 +17529,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1430</v>
+        <v>1458</v>
       </c>
       <c r="G449" t="s">
-        <v>1654</v>
+        <v>1784</v>
       </c>
       <c r="H449" t="s">
-        <v>1697</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17144,13 +17555,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1350</v>
+        <v>1389</v>
       </c>
       <c r="G450" t="s">
-        <v>1485</v>
+        <v>1785</v>
       </c>
       <c r="H450" t="s">
-        <v>1671</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17170,13 +17581,13 @@
         <v>1321</v>
       </c>
       <c r="F451" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G451" t="s">
-        <v>1655</v>
+        <v>1786</v>
       </c>
       <c r="H451" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17196,13 +17607,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1284</v>
+        <v>1456</v>
       </c>
       <c r="G452" t="s">
-        <v>1093</v>
+        <v>1787</v>
       </c>
       <c r="H452" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17222,13 +17633,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1338</v>
+        <v>1275</v>
       </c>
       <c r="G453" t="s">
-        <v>1656</v>
+        <v>1788</v>
       </c>
       <c r="H453" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17248,13 +17659,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1431</v>
+        <v>1459</v>
       </c>
       <c r="G454" t="s">
-        <v>1657</v>
+        <v>1789</v>
       </c>
       <c r="H454" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17274,13 +17685,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1432</v>
+        <v>1460</v>
       </c>
       <c r="G455" t="s">
-        <v>1658</v>
+        <v>1790</v>
       </c>
       <c r="H455" t="s">
-        <v>1666</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17300,13 +17711,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1341</v>
+        <v>1461</v>
       </c>
       <c r="G456" t="s">
-        <v>1659</v>
+        <v>1791</v>
       </c>
       <c r="H456" t="s">
-        <v>1684</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17326,13 +17737,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1361</v>
+        <v>1462</v>
       </c>
       <c r="G457" t="s">
-        <v>1660</v>
+        <v>1792</v>
       </c>
       <c r="H457" t="s">
-        <v>1689</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17352,13 +17763,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1433</v>
+        <v>1463</v>
       </c>
       <c r="G458" t="s">
-        <v>1661</v>
+        <v>1793</v>
       </c>
       <c r="H458" t="s">
-        <v>1687</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17378,13 +17789,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G459" t="s">
-        <v>1653</v>
+        <v>1794</v>
       </c>
       <c r="H459" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17404,13 +17815,13 @@
         <v>1334</v>
       </c>
       <c r="F460" t="s">
-        <v>1434</v>
+        <v>1284</v>
       </c>
       <c r="G460" t="s">
-        <v>1662</v>
+        <v>1543</v>
       </c>
       <c r="H460" t="s">
-        <v>1698</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17430,13 +17841,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1293</v>
+        <v>1464</v>
       </c>
       <c r="G461" t="s">
-        <v>1477</v>
+        <v>1795</v>
       </c>
       <c r="H461" t="s">
-        <v>1663</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17462,7 +17873,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17482,13 +17893,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1400</v>
+        <v>1431</v>
       </c>
       <c r="G463" t="s">
-        <v>1602</v>
+        <v>1700</v>
       </c>
       <c r="H463" t="s">
-        <v>1679</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17514,7 +17925,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1664</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17534,13 +17945,13 @@
         <v>1335</v>
       </c>
       <c r="F465" t="s">
-        <v>1277</v>
+        <v>1337</v>
       </c>
       <c r="G465" t="s">
-        <v>1453</v>
+        <v>1504</v>
       </c>
       <c r="H465" t="s">
-        <v>1668</v>
+        <v>1801</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda-partial-ner.xlsx
+++ b/Results/Categorization/lda-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1835">
   <si>
     <t>id</t>
   </si>
@@ -4030,132 +4030,144 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|SERVICE|FOOD|SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4171,7 +4183,10 @@
     <t>SERVICE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
@@ -4186,220 +4201,214 @@
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|FOOD|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|PRICES|PRICES|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|PRICES|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
@@ -5916,10 +5925,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="H2" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5942,10 +5951,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H3" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5968,10 +5977,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="H4" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5994,10 +6003,10 @@
         <v>1339</v>
       </c>
       <c r="G5" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="H5" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6020,10 +6029,10 @@
         <v>1340</v>
       </c>
       <c r="G6" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H6" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6046,10 +6055,10 @@
         <v>1341</v>
       </c>
       <c r="G7" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H7" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6072,10 +6081,10 @@
         <v>1342</v>
       </c>
       <c r="G8" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="H8" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6098,10 +6107,10 @@
         <v>1343</v>
       </c>
       <c r="G9" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H9" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6124,10 +6133,10 @@
         <v>1344</v>
       </c>
       <c r="G10" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H10" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6150,10 +6159,10 @@
         <v>1345</v>
       </c>
       <c r="G11" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H11" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6176,10 +6185,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H12" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6202,10 +6211,10 @@
         <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H13" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6225,13 +6234,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="G14" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H14" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6251,13 +6260,13 @@
         <v>1276</v>
       </c>
       <c r="F15" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G15" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H15" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6283,7 +6292,7 @@
         <v>1093</v>
       </c>
       <c r="H16" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6303,13 +6312,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G17" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="H17" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6329,13 +6338,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G18" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H18" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6358,10 +6367,10 @@
         <v>1344</v>
       </c>
       <c r="G19" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H19" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6384,10 +6393,10 @@
         <v>1337</v>
       </c>
       <c r="G20" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H20" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6407,13 +6416,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G21" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H21" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6439,7 +6448,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6465,7 +6474,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6491,7 +6500,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6511,13 +6520,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="G25" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H25" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6540,10 +6549,10 @@
         <v>1337</v>
       </c>
       <c r="G26" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H26" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6569,7 +6578,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6589,13 +6598,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="G28" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="H28" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6618,10 +6627,10 @@
         <v>1337</v>
       </c>
       <c r="G29" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="H29" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6644,10 +6653,10 @@
         <v>1337</v>
       </c>
       <c r="G30" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="H30" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6667,13 +6676,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H31" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6696,10 +6705,10 @@
         <v>1343</v>
       </c>
       <c r="G32" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H32" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6719,13 +6728,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G33" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H33" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6748,10 +6757,10 @@
         <v>1337</v>
       </c>
       <c r="G34" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="H34" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6774,10 +6783,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H35" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6797,13 +6806,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G36" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H36" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6823,13 +6832,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G37" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="H37" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6855,7 +6864,7 @@
         <v>952</v>
       </c>
       <c r="H38" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6881,7 +6890,7 @@
         <v>966</v>
       </c>
       <c r="H39" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6901,13 +6910,13 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G40" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H40" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6927,13 +6936,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G41" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H41" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6953,13 +6962,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G42" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="H42" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6979,13 +6988,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G43" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="H43" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7008,10 +7017,10 @@
         <v>1277</v>
       </c>
       <c r="G44" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="H44" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7031,13 +7040,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="G45" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H45" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7057,13 +7066,13 @@
         <v>1284</v>
       </c>
       <c r="F46" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G46" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H46" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7089,7 +7098,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7115,7 +7124,7 @@
         <v>937</v>
       </c>
       <c r="H48" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7138,10 +7147,10 @@
         <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="H49" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7164,10 +7173,10 @@
         <v>1337</v>
       </c>
       <c r="G50" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H50" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7190,10 +7199,10 @@
         <v>1337</v>
       </c>
       <c r="G51" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H51" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7213,13 +7222,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1342</v>
+        <v>1362</v>
       </c>
       <c r="G52" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H52" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7239,13 +7248,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1339</v>
+        <v>1363</v>
       </c>
       <c r="G53" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H53" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7268,10 +7277,10 @@
         <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H54" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7294,10 +7303,10 @@
         <v>1277</v>
       </c>
       <c r="G55" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H55" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7320,10 +7329,10 @@
         <v>1277</v>
       </c>
       <c r="G56" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H56" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7343,13 +7352,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="G57" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="H57" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7369,13 +7378,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G58" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="H58" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7398,10 +7407,10 @@
         <v>1275</v>
       </c>
       <c r="G59" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H59" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7421,13 +7430,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G60" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H60" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7447,13 +7456,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="G61" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H61" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7473,13 +7482,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="H62" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7502,10 +7511,10 @@
         <v>1337</v>
       </c>
       <c r="G63" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="H63" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7525,13 +7534,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="G64" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="H64" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7551,13 +7560,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G65" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H65" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7580,10 +7589,10 @@
         <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="H66" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7606,10 +7615,10 @@
         <v>1344</v>
       </c>
       <c r="G67" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H67" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7629,13 +7638,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G68" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="H68" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7658,10 +7667,10 @@
         <v>1277</v>
       </c>
       <c r="G69" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H69" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7687,7 +7696,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7710,10 +7719,10 @@
         <v>1277</v>
       </c>
       <c r="G71" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="H71" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7733,13 +7742,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G72" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="H72" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7762,10 +7771,10 @@
         <v>1337</v>
       </c>
       <c r="G73" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="H73" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7785,13 +7794,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G74" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="H74" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7811,13 +7820,13 @@
         <v>1275</v>
       </c>
       <c r="F75" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G75" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="H75" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7840,10 +7849,10 @@
         <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H76" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7869,7 +7878,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7895,7 +7904,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7921,7 +7930,7 @@
         <v>1000</v>
       </c>
       <c r="H79" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7941,13 +7950,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G80" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H80" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7970,10 +7979,10 @@
         <v>1277</v>
       </c>
       <c r="G81" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="H81" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7993,13 +8002,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="G82" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H82" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8022,10 +8031,10 @@
         <v>1337</v>
       </c>
       <c r="G83" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="H83" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8045,13 +8054,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="G84" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="H84" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8077,7 +8086,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8103,7 +8112,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8123,13 +8132,13 @@
         <v>1281</v>
       </c>
       <c r="F87" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G87" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="H87" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8152,10 +8161,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="H88" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8175,13 +8184,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G89" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="H89" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8204,10 +8213,10 @@
         <v>1343</v>
       </c>
       <c r="G90" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H90" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8227,13 +8236,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="G91" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="H91" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8253,13 +8262,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="G92" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="H92" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8279,13 +8288,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G93" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="H93" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8308,10 +8317,10 @@
         <v>1337</v>
       </c>
       <c r="G94" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="H94" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8334,10 +8343,10 @@
         <v>1337</v>
       </c>
       <c r="G95" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="H95" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8357,13 +8366,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="G96" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="H96" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8383,13 +8392,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="G97" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H97" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8409,13 +8418,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G98" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="H98" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8438,10 +8447,10 @@
         <v>1337</v>
       </c>
       <c r="G99" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="H99" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8464,10 +8473,10 @@
         <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="H100" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8490,10 +8499,10 @@
         <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H101" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8513,13 +8522,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="G102" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="H102" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8542,10 +8551,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H103" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8568,10 +8577,10 @@
         <v>1344</v>
       </c>
       <c r="G104" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="H104" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8594,10 +8603,10 @@
         <v>1277</v>
       </c>
       <c r="G105" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H105" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8617,13 +8626,13 @@
         <v>1284</v>
       </c>
       <c r="F106" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G106" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="H106" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8643,13 +8652,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1374</v>
+        <v>1356</v>
       </c>
       <c r="G107" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H107" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8675,7 +8684,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8695,13 +8704,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G109" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H109" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8721,13 +8730,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G110" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H110" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8747,13 +8756,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G111" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="H111" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8773,13 +8782,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G112" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="H112" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8799,13 +8808,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H113" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8828,10 +8837,10 @@
         <v>1337</v>
       </c>
       <c r="G114" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="H114" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8851,13 +8860,13 @@
         <v>1276</v>
       </c>
       <c r="F115" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G115" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="H115" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8877,13 +8886,13 @@
         <v>1284</v>
       </c>
       <c r="F116" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G116" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="H116" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8909,7 +8918,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8929,13 +8938,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G118" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H118" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8958,10 +8967,10 @@
         <v>1337</v>
       </c>
       <c r="G119" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H119" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8984,10 +8993,10 @@
         <v>1337</v>
       </c>
       <c r="G120" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="H120" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9010,10 +9019,10 @@
         <v>1293</v>
       </c>
       <c r="G121" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="H121" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9036,10 +9045,10 @@
         <v>1337</v>
       </c>
       <c r="G122" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="H122" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9062,10 +9071,10 @@
         <v>1337</v>
       </c>
       <c r="G123" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="H123" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9088,10 +9097,10 @@
         <v>1343</v>
       </c>
       <c r="G124" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="H124" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9111,13 +9120,13 @@
         <v>1275</v>
       </c>
       <c r="F125" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G125" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H125" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9143,7 +9152,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9163,13 +9172,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1379</v>
+        <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="H127" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9192,10 +9201,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="H128" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9221,7 +9230,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9241,13 +9250,13 @@
         <v>1276</v>
       </c>
       <c r="F130" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G130" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="H130" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9267,13 +9276,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G131" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="H131" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9293,13 +9302,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1353</v>
+        <v>1383</v>
       </c>
       <c r="G132" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="H132" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9319,13 +9328,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="G133" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="H133" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9345,13 +9354,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="G134" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="H134" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9374,10 +9383,10 @@
         <v>1344</v>
       </c>
       <c r="G135" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="H135" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9397,13 +9406,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G136" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="H136" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9423,13 +9432,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1353</v>
+        <v>1383</v>
       </c>
       <c r="G137" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="H137" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9449,13 +9458,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G138" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="H138" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9475,13 +9484,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="G139" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="H139" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9504,10 +9513,10 @@
         <v>1277</v>
       </c>
       <c r="G140" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="H140" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9527,13 +9536,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="G141" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="H141" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9553,13 +9562,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="G142" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="H142" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9579,13 +9588,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G143" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="H143" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9605,13 +9614,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="G144" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="H144" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9631,13 +9640,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="G145" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="H145" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9663,7 +9672,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9686,10 +9695,10 @@
         <v>1277</v>
       </c>
       <c r="G147" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="H147" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9712,10 +9721,10 @@
         <v>1343</v>
       </c>
       <c r="G148" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H148" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9735,13 +9744,13 @@
         <v>1276</v>
       </c>
       <c r="F149" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G149" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="H149" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9761,13 +9770,13 @@
         <v>1281</v>
       </c>
       <c r="F150" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="G150" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="H150" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9787,13 +9796,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G151" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="H151" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9819,7 +9828,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9842,10 +9851,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="H153" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9868,10 +9877,10 @@
         <v>1277</v>
       </c>
       <c r="G154" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="H154" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9891,13 +9900,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="G155" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="H155" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9917,13 +9926,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G156" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="H156" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9943,13 +9952,13 @@
         <v>1276</v>
       </c>
       <c r="F157" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G157" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="H157" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9969,13 +9978,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="G158" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="H158" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9995,13 +10004,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1353</v>
+        <v>1383</v>
       </c>
       <c r="G159" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="H159" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10021,13 +10030,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G160" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="H160" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10047,13 +10056,13 @@
         <v>1277</v>
       </c>
       <c r="F161" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G161" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="H161" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10076,10 +10085,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H162" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10099,13 +10108,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="G163" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="H163" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10125,13 +10134,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="G164" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="H164" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10151,13 +10160,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="G165" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="H165" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10183,7 +10192,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10203,13 +10212,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G167" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="H167" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10235,7 +10244,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10258,10 +10267,10 @@
         <v>1337</v>
       </c>
       <c r="G169" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="H169" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10281,13 +10290,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1373</v>
+        <v>1390</v>
       </c>
       <c r="G170" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="H170" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10310,10 +10319,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H171" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10333,13 +10342,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="G172" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="H172" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10359,13 +10368,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="G173" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="H173" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10385,13 +10394,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G174" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="H174" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10411,13 +10420,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G175" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="H175" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10440,10 +10449,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H176" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10463,13 +10472,13 @@
         <v>1276</v>
       </c>
       <c r="F177" t="s">
-        <v>1353</v>
+        <v>1383</v>
       </c>
       <c r="G177" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="H177" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10492,10 +10501,10 @@
         <v>1277</v>
       </c>
       <c r="G178" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="H178" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10518,10 +10527,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="H179" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10541,13 +10550,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="G180" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="H180" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10567,13 +10576,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1390</v>
+        <v>1348</v>
       </c>
       <c r="G181" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="H181" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10593,13 +10602,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="G182" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="H182" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10619,13 +10628,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="G183" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="H183" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10645,13 +10654,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="G184" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="H184" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10671,13 +10680,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G185" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="H185" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10700,10 +10709,10 @@
         <v>1277</v>
       </c>
       <c r="G186" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="H186" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10723,13 +10732,13 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1342</v>
+        <v>1395</v>
       </c>
       <c r="G187" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="H187" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10752,10 +10761,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H188" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10775,13 +10784,13 @@
         <v>1277</v>
       </c>
       <c r="F189" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G189" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="H189" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10801,13 +10810,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="G190" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="H190" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10833,7 +10842,7 @@
         <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10856,10 +10865,10 @@
         <v>1337</v>
       </c>
       <c r="G192" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="H192" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10882,10 +10891,10 @@
         <v>1277</v>
       </c>
       <c r="G193" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="H193" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10911,7 +10920,7 @@
         <v>952</v>
       </c>
       <c r="H194" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10937,7 +10946,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10957,13 +10966,13 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G196" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="H196" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10983,13 +10992,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="G197" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="H197" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11009,13 +11018,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G198" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="H198" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11038,10 +11047,10 @@
         <v>1337</v>
       </c>
       <c r="G199" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="H199" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11067,7 +11076,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11090,10 +11099,10 @@
         <v>1284</v>
       </c>
       <c r="G201" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H201" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11119,7 +11128,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11142,10 +11151,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="H203" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11165,13 +11174,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G204" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="H204" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11191,13 +11200,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G205" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="H205" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11217,13 +11226,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G206" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="H206" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11243,13 +11252,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G207" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="H207" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11269,13 +11278,13 @@
         <v>1284</v>
       </c>
       <c r="F208" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G208" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="H208" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11295,13 +11304,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="G209" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="H209" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11321,13 +11330,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G210" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="H210" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11347,13 +11356,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G211" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="H211" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11376,10 +11385,10 @@
         <v>1343</v>
       </c>
       <c r="G212" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="H212" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11399,13 +11408,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G213" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="H213" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11425,13 +11434,13 @@
         <v>1276</v>
       </c>
       <c r="F214" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G214" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="H214" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11454,10 +11463,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="H215" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11480,10 +11489,10 @@
         <v>1336</v>
       </c>
       <c r="G216" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="H216" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11506,10 +11515,10 @@
         <v>1337</v>
       </c>
       <c r="G217" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="H217" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11532,10 +11541,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H218" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11555,13 +11564,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="G219" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="H219" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11584,10 +11593,10 @@
         <v>1277</v>
       </c>
       <c r="G220" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="H220" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11607,13 +11616,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="G221" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="H221" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11633,13 +11642,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1400</v>
+        <v>1342</v>
       </c>
       <c r="G222" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="H222" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11659,13 +11668,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G223" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="H223" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11685,13 +11694,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G224" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="H224" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11717,7 +11726,7 @@
         <v>952</v>
       </c>
       <c r="H225" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11737,13 +11746,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G226" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="H226" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11763,13 +11772,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G227" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="H227" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11789,13 +11798,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G228" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="H228" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11821,7 +11830,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11847,7 +11856,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11873,7 +11882,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11893,13 +11902,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G232" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="H232" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11919,13 +11928,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G233" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="H233" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11945,13 +11954,13 @@
         <v>1293</v>
       </c>
       <c r="F234" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G234" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="H234" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11977,7 +11986,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12000,10 +12009,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="H236" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12026,10 +12035,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="H237" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12049,13 +12058,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G238" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="H238" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12075,13 +12084,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G239" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H239" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12101,13 +12110,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G240" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="H240" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12127,13 +12136,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G241" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="H241" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12153,13 +12162,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G242" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="H242" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12179,13 +12188,13 @@
         <v>1275</v>
       </c>
       <c r="F243" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G243" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="H243" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12205,13 +12214,13 @@
         <v>1284</v>
       </c>
       <c r="F244" t="s">
-        <v>1400</v>
+        <v>1362</v>
       </c>
       <c r="G244" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="H244" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12231,13 +12240,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G245" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="H245" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12260,10 +12269,10 @@
         <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="H246" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12283,13 +12292,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G247" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="H247" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12309,13 +12318,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1393</v>
+        <v>1411</v>
       </c>
       <c r="G248" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="H248" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12335,13 +12344,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G249" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H249" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12361,13 +12370,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G250" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H250" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12393,7 +12402,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12413,13 +12422,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="G252" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="H252" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12439,13 +12448,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G253" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="H253" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12465,13 +12474,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G254" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="H254" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12497,7 +12506,7 @@
         <v>963</v>
       </c>
       <c r="H255" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12523,7 +12532,7 @@
         <v>952</v>
       </c>
       <c r="H256" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12549,7 +12558,7 @@
         <v>1164</v>
       </c>
       <c r="H257" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12575,7 +12584,7 @@
         <v>952</v>
       </c>
       <c r="H258" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12601,7 +12610,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12627,7 +12636,7 @@
         <v>972</v>
       </c>
       <c r="H260" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12650,10 +12659,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="H261" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12673,13 +12682,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G262" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H262" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12699,13 +12708,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1400</v>
+        <v>1342</v>
       </c>
       <c r="G263" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="H263" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12731,7 +12740,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12754,10 +12763,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="H265" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12777,13 +12786,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G266" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="H266" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12803,13 +12812,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1413</v>
+        <v>1373</v>
       </c>
       <c r="G267" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="H267" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12829,13 +12838,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G268" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="H268" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12855,13 +12864,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="G269" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="H269" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12881,13 +12890,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G270" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="H270" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12907,13 +12916,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G271" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="H271" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12933,13 +12942,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G272" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="H272" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12959,13 +12968,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G273" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="H273" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12985,13 +12994,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G274" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="H274" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13011,13 +13020,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G275" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="H275" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13043,7 +13052,7 @@
         <v>937</v>
       </c>
       <c r="H276" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13066,10 +13075,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H277" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13089,13 +13098,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G278" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="H278" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13115,13 +13124,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G279" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="H279" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13141,13 +13150,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G280" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="H280" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13170,10 +13179,10 @@
         <v>1275</v>
       </c>
       <c r="G281" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H281" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13193,13 +13202,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G282" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="H282" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13219,13 +13228,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G283" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="H283" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13245,13 +13254,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1390</v>
+        <v>1426</v>
       </c>
       <c r="G284" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="H284" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13271,13 +13280,13 @@
         <v>1275</v>
       </c>
       <c r="F285" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G285" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="H285" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13297,13 +13306,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1390</v>
+        <v>1428</v>
       </c>
       <c r="G286" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="H286" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13323,13 +13332,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="G287" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="H287" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13352,10 +13361,10 @@
         <v>1284</v>
       </c>
       <c r="G288" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="H288" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13381,7 +13390,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13401,13 +13410,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G290" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="H290" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13427,13 +13436,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G291" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="H291" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13453,13 +13462,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="G292" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="H292" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13479,13 +13488,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G293" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="H293" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13508,10 +13517,10 @@
         <v>1277</v>
       </c>
       <c r="G294" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="H294" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13531,13 +13540,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G295" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="H295" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13557,13 +13566,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G296" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="H296" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13583,13 +13592,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="G297" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="H297" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13612,10 +13621,10 @@
         <v>1275</v>
       </c>
       <c r="G298" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H298" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13635,13 +13644,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="G299" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="H299" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13667,7 +13676,7 @@
         <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13693,7 +13702,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13713,13 +13722,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="G302" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="H302" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13739,13 +13748,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="G303" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="H303" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13765,13 +13774,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G304" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="H304" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13791,13 +13800,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G305" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="H305" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13823,7 +13832,7 @@
         <v>955</v>
       </c>
       <c r="H306" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13846,10 +13855,10 @@
         <v>1275</v>
       </c>
       <c r="G307" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="H307" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13869,13 +13878,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G308" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="H308" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13895,13 +13904,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G309" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="H309" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13927,7 +13936,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13953,7 +13962,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13973,13 +13982,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G312" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="H312" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14005,7 +14014,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14025,13 +14034,13 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G314" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H314" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14057,7 +14066,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14080,10 +14089,10 @@
         <v>1359</v>
       </c>
       <c r="G316" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="H316" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14103,13 +14112,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G317" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H317" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14129,13 +14138,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G318" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="H318" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14155,13 +14164,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="G319" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="H319" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14187,7 +14196,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14207,13 +14216,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G321" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="H321" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14233,13 +14242,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="G322" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="H322" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14262,10 +14271,10 @@
         <v>1343</v>
       </c>
       <c r="G323" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="H323" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14288,10 +14297,10 @@
         <v>1337</v>
       </c>
       <c r="G324" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H324" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14317,7 +14326,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14337,13 +14346,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G326" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="H326" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14363,13 +14372,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G327" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="H327" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14389,13 +14398,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G328" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H328" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14415,13 +14424,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G329" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="H329" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14441,13 +14450,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G330" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H330" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14473,7 +14482,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14499,7 +14508,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14522,10 +14531,10 @@
         <v>1277</v>
       </c>
       <c r="G333" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="H333" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14548,10 +14557,10 @@
         <v>1359</v>
       </c>
       <c r="G334" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="H334" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14571,13 +14580,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="G335" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="H335" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14597,13 +14606,13 @@
         <v>1284</v>
       </c>
       <c r="F336" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G336" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="H336" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14623,13 +14632,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="G337" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="H337" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14649,13 +14658,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G338" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="H338" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14681,7 +14690,7 @@
         <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14704,10 +14713,10 @@
         <v>1284</v>
       </c>
       <c r="G340" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="H340" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14727,13 +14736,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G341" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="H341" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14753,13 +14762,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G342" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="H342" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14779,13 +14788,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1372</v>
+        <v>1397</v>
       </c>
       <c r="G343" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="H343" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14805,13 +14814,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G344" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="H344" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14831,13 +14840,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G345" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="H345" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14860,10 +14869,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="H346" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14883,13 +14892,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G347" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="H347" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14909,13 +14918,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="G348" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H348" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14935,13 +14944,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G349" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="H349" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14961,13 +14970,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="G350" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="H350" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14987,13 +14996,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G351" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="H351" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15013,13 +15022,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="G352" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="H352" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15042,10 +15051,10 @@
         <v>1344</v>
       </c>
       <c r="G353" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="H353" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15071,7 +15080,7 @@
         <v>955</v>
       </c>
       <c r="H354" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15091,13 +15100,13 @@
         <v>1297</v>
       </c>
       <c r="F355" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G355" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="H355" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15117,13 +15126,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="G356" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H356" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15143,13 +15152,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G357" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="H357" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15169,13 +15178,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G358" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="H358" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15195,13 +15204,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G359" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="H359" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15221,13 +15230,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G360" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="H360" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15247,13 +15256,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="G361" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="H361" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15273,13 +15282,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="G362" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="H362" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15302,10 +15311,10 @@
         <v>1284</v>
       </c>
       <c r="G363" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="H363" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15325,13 +15334,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="G364" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="H364" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15354,10 +15363,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="H365" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15377,13 +15386,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G366" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="H366" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15403,13 +15412,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G367" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="H367" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15429,13 +15438,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G368" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="H368" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15455,13 +15464,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G369" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="H369" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15484,10 +15493,10 @@
         <v>1293</v>
       </c>
       <c r="G370" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="H370" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15510,10 +15519,10 @@
         <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="H371" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15533,13 +15542,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G372" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="H372" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15559,13 +15568,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="G373" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="H373" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15585,13 +15594,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G374" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H374" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15614,10 +15623,10 @@
         <v>1277</v>
       </c>
       <c r="G375" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H375" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15637,13 +15646,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="G376" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="H376" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15666,10 +15675,10 @@
         <v>1284</v>
       </c>
       <c r="G377" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="H377" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15689,7 +15698,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15712,10 +15721,10 @@
         <v>1284</v>
       </c>
       <c r="G379" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H379" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15735,13 +15744,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G380" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="H380" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15761,13 +15770,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G381" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="H381" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15787,13 +15796,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="G382" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="H382" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15813,13 +15822,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="G383" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="H383" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15845,7 +15854,7 @@
         <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15868,10 +15877,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="H385" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15891,13 +15900,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="G386" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="H386" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15917,13 +15926,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="G387" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="H387" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15943,13 +15952,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G388" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="H388" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15969,13 +15978,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G389" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H389" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15995,13 +16004,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="G390" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="H390" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16027,7 +16036,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16047,13 +16056,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G392" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="H392" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16073,13 +16082,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G393" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="H393" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16102,10 +16111,10 @@
         <v>1337</v>
       </c>
       <c r="G394" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H394" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16131,7 +16140,7 @@
         <v>972</v>
       </c>
       <c r="H395" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16154,10 +16163,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H396" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16180,10 +16189,10 @@
         <v>1343</v>
       </c>
       <c r="G397" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="H397" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16203,13 +16212,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G398" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="H398" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16229,13 +16238,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G399" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="H399" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16255,13 +16264,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="G400" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="H400" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16281,13 +16290,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="G401" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="H401" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16313,7 +16322,7 @@
         <v>1093</v>
       </c>
       <c r="H402" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16339,7 +16348,7 @@
         <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16359,13 +16368,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G404" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="H404" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16388,10 +16397,10 @@
         <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="H405" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16417,7 +16426,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16440,10 +16449,10 @@
         <v>1284</v>
       </c>
       <c r="G407" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="H407" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16466,10 +16475,10 @@
         <v>1277</v>
       </c>
       <c r="G408" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="H408" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16489,13 +16498,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="G409" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="H409" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16515,13 +16524,13 @@
         <v>1284</v>
       </c>
       <c r="F410" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G410" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="H410" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16541,13 +16550,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G411" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H411" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16570,10 +16579,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="H412" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16593,13 +16602,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1413</v>
+        <v>1457</v>
       </c>
       <c r="G413" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="H413" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16625,7 +16634,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16645,13 +16654,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="G415" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="H415" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16671,13 +16680,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H416" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16697,13 +16706,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G417" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H417" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16723,13 +16732,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="G418" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="H418" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16749,13 +16758,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G419" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="H419" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16775,13 +16784,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G420" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="H420" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16804,10 +16813,10 @@
         <v>1336</v>
       </c>
       <c r="G421" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="H421" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16830,10 +16839,10 @@
         <v>1337</v>
       </c>
       <c r="G422" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="H422" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16853,13 +16862,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G423" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H423" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16879,13 +16888,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1455</v>
+        <v>1362</v>
       </c>
       <c r="G424" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="H424" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16905,13 +16914,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1416</v>
+        <v>1389</v>
       </c>
       <c r="G425" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="H425" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16931,13 +16940,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G426" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H426" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16963,7 +16972,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16989,7 +16998,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17015,7 +17024,7 @@
         <v>1069</v>
       </c>
       <c r="H429" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17038,10 +17047,10 @@
         <v>1344</v>
       </c>
       <c r="G430" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H430" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17064,10 +17073,10 @@
         <v>1284</v>
       </c>
       <c r="G431" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="H431" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17087,13 +17096,13 @@
         <v>1278</v>
       </c>
       <c r="F432" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="G432" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="H432" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17113,13 +17122,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="G433" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="H433" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17139,13 +17148,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G434" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="H434" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17168,10 +17177,10 @@
         <v>1284</v>
       </c>
       <c r="G435" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="H435" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17191,13 +17200,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G436" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="H436" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17217,13 +17226,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="G437" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="H437" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17246,10 +17255,10 @@
         <v>1337</v>
       </c>
       <c r="G438" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="H438" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17269,13 +17278,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G439" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="H439" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17301,7 +17310,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17321,13 +17330,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G441" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="H441" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17347,13 +17356,13 @@
         <v>1284</v>
       </c>
       <c r="F442" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G442" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="H442" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17376,10 +17385,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H443" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17402,10 +17411,10 @@
         <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="H444" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17425,13 +17434,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1353</v>
+        <v>1383</v>
       </c>
       <c r="G445" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="H445" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17454,10 +17463,10 @@
         <v>1337</v>
       </c>
       <c r="G446" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="H446" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17477,13 +17486,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1431</v>
+        <v>1351</v>
       </c>
       <c r="G447" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="H447" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17503,13 +17512,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G448" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="H448" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17529,13 +17538,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="G449" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="H449" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17555,13 +17564,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="G450" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="H450" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17584,10 +17593,10 @@
         <v>1337</v>
       </c>
       <c r="G451" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="H451" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17607,13 +17616,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="G452" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="H452" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17636,10 +17645,10 @@
         <v>1275</v>
       </c>
       <c r="G453" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="H453" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17659,13 +17668,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="G454" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="H454" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17685,13 +17694,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="G455" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="H455" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17711,13 +17720,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1461</v>
+        <v>1415</v>
       </c>
       <c r="G456" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="H456" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17737,13 +17746,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="G457" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="H457" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17763,13 +17772,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="G458" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="H458" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17789,13 +17798,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G459" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="H459" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17815,13 +17824,13 @@
         <v>1334</v>
       </c>
       <c r="F460" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G460" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="H460" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17841,13 +17850,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="G461" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="H461" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17873,7 +17882,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17893,13 +17902,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G463" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="H463" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17925,7 +17934,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17948,10 +17957,10 @@
         <v>1337</v>
       </c>
       <c r="G465" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H465" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
     </row>
   </sheetData>
